--- a/Jogos_do_Dia/2023-08-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="231">
   <si>
     <t>League</t>
   </si>
@@ -160,18 +160,18 @@
     <t>Russia Russian Premier League</t>
   </si>
   <si>
+    <t>Germany 3. Liga</t>
+  </si>
+  <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
     <t>Sweden Superettan</t>
   </si>
   <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
-    <t>Germany 3. Liga</t>
-  </si>
-  <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Turkey Süper Lig</t>
+  </si>
+  <si>
     <t>Greece Super League</t>
   </si>
   <si>
-    <t>Turkey Süper Lig</t>
-  </si>
-  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>Argentina Primera División</t>
   </si>
   <si>
+    <t>Uruguay Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Uruguay Primera División</t>
-  </si>
-  <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
@@ -292,6 +292,9 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Avispa Fukuoka</t>
   </si>
   <si>
@@ -340,12 +343,12 @@
     <t>Floridsdorfer AC</t>
   </si>
   <si>
+    <t>Ried</t>
+  </si>
+  <si>
     <t>Horn</t>
   </si>
   <si>
-    <t>Ried</t>
-  </si>
-  <si>
     <t>Amstetten</t>
   </si>
   <si>
@@ -361,66 +364,66 @@
     <t>Rubin Kazan</t>
   </si>
   <si>
+    <t>Sandhausen</t>
+  </si>
+  <si>
+    <t>CS Marítimo</t>
+  </si>
+  <si>
     <t>Hvidovre</t>
   </si>
   <si>
     <t>GAIS</t>
   </si>
   <si>
+    <t>FC Andorra</t>
+  </si>
+  <si>
     <t>Utsikten</t>
   </si>
   <si>
-    <t>CS Marítimo</t>
-  </si>
-  <si>
-    <t>Sandhausen</t>
-  </si>
-  <si>
-    <t>FC Andorra</t>
-  </si>
-  <si>
     <t>RCD Mallorca</t>
   </si>
   <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>FCV Dender EH</t>
+  </si>
+  <si>
+    <t>Lommel United</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>İstanbulspor</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>NAC Breda</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>Telstar</t>
+  </si>
+  <si>
     <t>Emmen</t>
   </si>
   <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
-    <t>FCV Dender EH</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
-    <t>Oss</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>Telstar</t>
-  </si>
-  <si>
-    <t>İstanbulspor</t>
-  </si>
-  <si>
-    <t>Antalyaspor</t>
-  </si>
-  <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>Lommel United</t>
-  </si>
-  <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
@@ -448,15 +451,15 @@
     <t>Caernarfon Town</t>
   </si>
   <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
     <t>Penybont</t>
   </si>
   <si>
-    <t>Nottingham Forest</t>
-  </si>
-  <si>
-    <t>OH Leuven</t>
-  </si>
-  <si>
     <t>Leeds United</t>
   </si>
   <si>
@@ -475,27 +478,30 @@
     <t>Real Zaragoza</t>
   </si>
   <si>
+    <t>Deportivo Maldonado</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
     <t>Unión Santa Fe</t>
   </si>
   <si>
-    <t>Vitória</t>
-  </si>
-  <si>
     <t>Luton Town</t>
   </si>
   <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Deportivo Maldonado</t>
-  </si>
-  <si>
     <t>Olimpia</t>
   </si>
   <si>
     <t>Boca Juniors</t>
   </si>
   <si>
+    <t>Guarani</t>
+  </si>
+  <si>
     <t>Albirex Niigata</t>
   </si>
   <si>
@@ -544,12 +550,12 @@
     <t>Lafnitz</t>
   </si>
   <si>
+    <t>Leoben</t>
+  </si>
+  <si>
     <t>First Vienna</t>
   </si>
   <si>
-    <t>Leoben</t>
-  </si>
-  <si>
     <t>SV Stripfing Weiden</t>
   </si>
   <si>
@@ -565,66 +571,66 @@
     <t>Krylya Sovetov</t>
   </si>
   <si>
+    <t>Dynamo Dresden</t>
+  </si>
+  <si>
+    <t>AVS</t>
+  </si>
+  <si>
     <t>København</t>
   </si>
   <si>
     <t>AFC Eskilstuna</t>
   </si>
   <si>
+    <t>FC Cartagena</t>
+  </si>
+  <si>
     <t>Västerås SK</t>
   </si>
   <si>
-    <t>AVS</t>
-  </si>
-  <si>
-    <t>Dynamo Dresden</t>
-  </si>
-  <si>
-    <t>FC Cartagena</t>
-  </si>
-  <si>
     <t>Villarreal</t>
   </si>
   <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht II</t>
+  </si>
+  <si>
+    <t>Club Brugge II</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
     <t>VVV</t>
   </si>
   <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>RSC Anderlecht II</t>
-  </si>
-  <si>
-    <t>NEC</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>PSV II</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>AZ II</t>
-  </si>
-  <si>
-    <t>Club Brugge II</t>
-  </si>
-  <si>
     <t>Arda</t>
   </si>
   <si>
@@ -652,15 +658,15 @@
     <t>Newtown</t>
   </si>
   <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Royal Antwerp FC</t>
+  </si>
+  <si>
     <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Royal Antwerp FC</t>
-  </si>
-  <si>
     <t>West Bromwich Albion</t>
   </si>
   <si>
@@ -679,25 +685,28 @@
     <t>Real Valladolid</t>
   </si>
   <si>
+    <t>Plaza Colonia</t>
+  </si>
+  <si>
+    <t>Lecco</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
     <t>Racing Club</t>
   </si>
   <si>
-    <t>Botafogo SP</t>
-  </si>
-  <si>
     <t>Burnley</t>
   </si>
   <si>
-    <t>Lecco</t>
-  </si>
-  <si>
-    <t>Plaza Colonia</t>
-  </si>
-  <si>
     <t>Guaireña</t>
   </si>
   <si>
     <t>Platense</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI69"/>
+  <dimension ref="A1:AI70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,19 +1195,19 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G2">
-        <v>2.3</v>
+        <v>1.86</v>
       </c>
       <c r="H2">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="J2">
         <v>1.08</v>
@@ -1213,10 +1222,10 @@
         <v>2.62</v>
       </c>
       <c r="N2">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="P2">
         <v>1.49</v>
@@ -1293,19 +1302,19 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G3">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1320,10 +1329,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O3">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -1380,10 +1389,10 @@
         <v>2.53</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1400,19 +1409,19 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G4">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="J4">
         <v>1.08</v>
@@ -1427,10 +1436,10 @@
         <v>2.75</v>
       </c>
       <c r="N4">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1487,10 +1496,10 @@
         <v>2.42</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1507,19 +1516,19 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G5">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="I5">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="J5">
         <v>1.09</v>
@@ -1534,10 +1543,10 @@
         <v>2.48</v>
       </c>
       <c r="N5">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="O5">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="P5">
         <v>1.57</v>
@@ -1614,16 +1623,16 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G6">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>5.25</v>
@@ -1641,10 +1650,10 @@
         <v>4.15</v>
       </c>
       <c r="N6">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="O6">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="P6">
         <v>1.32</v>
@@ -1721,16 +1730,16 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G7">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I7">
         <v>11</v>
@@ -1748,10 +1757,10 @@
         <v>4.9</v>
       </c>
       <c r="N7">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="O7">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="P7">
         <v>1.25</v>
@@ -1828,19 +1837,19 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G8">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H8">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="I8">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>1.03</v>
@@ -1855,10 +1864,10 @@
         <v>4</v>
       </c>
       <c r="N8">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="O8">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="P8">
         <v>1.3</v>
@@ -1935,19 +1944,19 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G9">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="I9">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="J9">
         <v>1.05</v>
@@ -1962,10 +1971,10 @@
         <v>3.4</v>
       </c>
       <c r="N9">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="O9">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="P9">
         <v>1.39</v>
@@ -2042,19 +2051,19 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G10">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H10">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="J10">
         <v>1.06</v>
@@ -2072,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P10">
         <v>1.45</v>
@@ -2149,19 +2158,19 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H11">
         <v>3.25</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="J11">
         <v>1.06</v>
@@ -2176,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="N11">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O11">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="P11">
         <v>1.45</v>
@@ -2256,19 +2265,19 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G12">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="H12">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="I12">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="J12">
         <v>1.08</v>
@@ -2325,25 +2334,25 @@
         <v>1.4</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2363,19 +2372,19 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G13">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H13">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="I13">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="J13">
         <v>1.05</v>
@@ -2390,10 +2399,10 @@
         <v>3.28</v>
       </c>
       <c r="N13">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="P13">
         <v>1.4</v>
@@ -2470,19 +2479,19 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G14">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H14">
+        <v>3.35</v>
+      </c>
+      <c r="I14">
         <v>3.4</v>
-      </c>
-      <c r="I14">
-        <v>3.6</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2497,10 +2506,10 @@
         <v>2.85</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O14">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="P14">
         <v>1.46</v>
@@ -2577,16 +2586,16 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G15">
         <v>1.6</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -2604,10 +2613,10 @@
         <v>3.96</v>
       </c>
       <c r="N15">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O15">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="P15">
         <v>1.3</v>
@@ -2655,7 +2664,7 @@
         <v>4.07</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF15">
         <v>1.38</v>
@@ -2684,19 +2693,19 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G16">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H16">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I16">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -2711,10 +2720,10 @@
         <v>3.86</v>
       </c>
       <c r="N16">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="O16">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="P16">
         <v>1.33</v>
@@ -2791,31 +2800,31 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="H17">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="I17">
-        <v>3.3</v>
+        <v>3.81</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N17">
         <v>1.65</v>
@@ -2824,10 +2833,10 @@
         <v>2.1</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="R17">
         <v>1.67</v>
@@ -2836,13 +2845,13 @@
         <v>2.1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -2898,73 +2907,73 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G18">
-        <v>2.6</v>
+        <v>1.81</v>
       </c>
       <c r="H18">
-        <v>3.5</v>
+        <v>4.17</v>
       </c>
       <c r="I18">
-        <v>2.4</v>
+        <v>3.53</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N18">
+        <v>1.75</v>
+      </c>
+      <c r="O18">
+        <v>1.95</v>
+      </c>
+      <c r="P18">
+        <v>1.33</v>
+      </c>
+      <c r="Q18">
+        <v>3.05</v>
+      </c>
+      <c r="R18">
         <v>1.62</v>
       </c>
-      <c r="O18">
-        <v>2.15</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1.57</v>
-      </c>
       <c r="S18">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Z18">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="AA18">
-        <v>1.7</v>
+        <v>3.71</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3005,97 +3014,97 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G19">
-        <v>1.73</v>
+        <v>2.54</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="I19">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="N19">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="O19">
+        <v>2.15</v>
+      </c>
+      <c r="P19">
+        <v>1.3</v>
+      </c>
+      <c r="Q19">
+        <v>3.25</v>
+      </c>
+      <c r="R19">
+        <v>1.53</v>
+      </c>
+      <c r="S19">
+        <v>2.38</v>
+      </c>
+      <c r="T19">
+        <v>1.5</v>
+      </c>
+      <c r="U19">
+        <v>1.2</v>
+      </c>
+      <c r="V19">
+        <v>1.52</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1.7</v>
+      </c>
+      <c r="AA19">
+        <v>1.7</v>
+      </c>
+      <c r="AB19">
         <v>1.95</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1.62</v>
-      </c>
-      <c r="S19">
-        <v>2.2</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>3</v>
-      </c>
-      <c r="Y19">
-        <v>1.62</v>
-      </c>
-      <c r="Z19">
-        <v>2.09</v>
-      </c>
-      <c r="AA19">
-        <v>3.71</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
       <c r="AC19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3112,31 +3121,31 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G20">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H20">
-        <v>3.6</v>
+        <v>3.93</v>
       </c>
       <c r="I20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N20">
         <v>1.57</v>
@@ -3145,25 +3154,25 @@
         <v>2.25</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="R20">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S20">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3219,31 +3228,31 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G21">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="H21">
-        <v>3.75</v>
+        <v>4.16</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>3.53</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N21">
         <v>1.57</v>
@@ -3252,25 +3261,25 @@
         <v>2.25</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="R21">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S21">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -3326,19 +3335,19 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G22">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="H22">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="I22">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="J22">
         <v>1.04</v>
@@ -3353,10 +3362,10 @@
         <v>4.1</v>
       </c>
       <c r="N22">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O22">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="P22">
         <v>1.33</v>
@@ -3433,10 +3442,10 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G23">
         <v>3.25</v>
@@ -3540,25 +3549,25 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G24">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="H24">
-        <v>3.34</v>
+        <v>3.21</v>
       </c>
       <c r="I24">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="L24">
         <v>1.21</v>
@@ -3644,100 +3653,100 @@
         <v>80</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>2.38</v>
       </c>
       <c r="H25">
-        <v>4.33</v>
+        <v>3.28</v>
       </c>
       <c r="I25">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="J25">
         <v>1.04</v>
       </c>
       <c r="K25">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
       <c r="L25">
+        <v>1.28</v>
+      </c>
+      <c r="M25">
+        <v>3.5</v>
+      </c>
+      <c r="N25">
+        <v>1.82</v>
+      </c>
+      <c r="O25">
+        <v>1.88</v>
+      </c>
+      <c r="P25">
+        <v>1.37</v>
+      </c>
+      <c r="Q25">
+        <v>2.85</v>
+      </c>
+      <c r="R25">
+        <v>1.68</v>
+      </c>
+      <c r="S25">
+        <v>2.1</v>
+      </c>
+      <c r="T25">
+        <v>1.42</v>
+      </c>
+      <c r="U25">
+        <v>1.25</v>
+      </c>
+      <c r="V25">
+        <v>1.47</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>2.03</v>
+      </c>
+      <c r="AC25">
+        <v>7.7</v>
+      </c>
+      <c r="AD25">
+        <v>2.1</v>
+      </c>
+      <c r="AE25">
         <v>1.23</v>
       </c>
-      <c r="M25">
-        <v>4.27</v>
-      </c>
-      <c r="N25">
-        <v>1.83</v>
-      </c>
-      <c r="O25">
-        <v>2.03</v>
-      </c>
-      <c r="P25">
-        <v>1.32</v>
-      </c>
-      <c r="Q25">
-        <v>3.2</v>
-      </c>
-      <c r="R25">
-        <v>1.9</v>
-      </c>
-      <c r="S25">
-        <v>1.88</v>
-      </c>
-      <c r="T25">
-        <v>2.65</v>
-      </c>
-      <c r="U25">
-        <v>1.2</v>
-      </c>
-      <c r="V25">
-        <v>1.13</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>3</v>
-      </c>
-      <c r="Y25">
-        <v>0.75</v>
-      </c>
-      <c r="Z25">
-        <v>1.6</v>
-      </c>
-      <c r="AA25">
+      <c r="AF25">
+        <v>1.44</v>
+      </c>
+      <c r="AG25">
+        <v>1.95</v>
+      </c>
+      <c r="AH25">
         <v>2.35</v>
       </c>
-      <c r="AB25">
-        <v>3.49</v>
-      </c>
-      <c r="AC25">
-        <v>9</v>
-      </c>
-      <c r="AD25">
-        <v>1.41</v>
-      </c>
-      <c r="AE25">
-        <v>1.21</v>
-      </c>
-      <c r="AF25">
-        <v>1.46</v>
-      </c>
-      <c r="AG25">
-        <v>1.75</v>
-      </c>
-      <c r="AH25">
-        <v>2.2</v>
-      </c>
       <c r="AI25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3751,105 +3760,105 @@
         <v>80</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="H26">
-        <v>4.2</v>
+        <v>3.32</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>3.72</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="K26">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L26">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N26">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="P26">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="R26">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="S26">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T26">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="U26">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="V26">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2">
         <v>45156</v>
@@ -3858,105 +3867,105 @@
         <v>80</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G27">
-        <v>2.7</v>
+        <v>7.25</v>
       </c>
       <c r="H27">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="I27">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="J27">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K27">
+        <v>15.5</v>
+      </c>
+      <c r="L27">
+        <v>1.23</v>
+      </c>
+      <c r="M27">
+        <v>4.27</v>
+      </c>
+      <c r="N27">
+        <v>1.83</v>
+      </c>
+      <c r="O27">
+        <v>2.03</v>
+      </c>
+      <c r="P27">
+        <v>1.32</v>
+      </c>
+      <c r="Q27">
+        <v>3.2</v>
+      </c>
+      <c r="R27">
+        <v>1.9</v>
+      </c>
+      <c r="S27">
+        <v>1.88</v>
+      </c>
+      <c r="T27">
+        <v>2.65</v>
+      </c>
+      <c r="U27">
+        <v>1.2</v>
+      </c>
+      <c r="V27">
+        <v>1.13</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>0.75</v>
+      </c>
+      <c r="Z27">
+        <v>1.6</v>
+      </c>
+      <c r="AA27">
+        <v>2.35</v>
+      </c>
+      <c r="AB27">
+        <v>3.49</v>
+      </c>
+      <c r="AC27">
         <v>9</v>
       </c>
-      <c r="L27">
-        <v>1.25</v>
-      </c>
-      <c r="M27">
-        <v>3.6</v>
-      </c>
-      <c r="N27">
+      <c r="AD27">
+        <v>1.41</v>
+      </c>
+      <c r="AE27">
+        <v>1.21</v>
+      </c>
+      <c r="AF27">
+        <v>1.46</v>
+      </c>
+      <c r="AG27">
         <v>1.75</v>
       </c>
-      <c r="O27">
-        <v>1.95</v>
-      </c>
-      <c r="P27">
-        <v>1.33</v>
-      </c>
-      <c r="Q27">
+      <c r="AH27">
+        <v>2.2</v>
+      </c>
+      <c r="AI27">
         <v>3</v>
-      </c>
-      <c r="R27">
-        <v>1.67</v>
-      </c>
-      <c r="S27">
-        <v>2.1</v>
-      </c>
-      <c r="T27">
-        <v>1.5</v>
-      </c>
-      <c r="U27">
-        <v>1.3</v>
-      </c>
-      <c r="V27">
-        <v>1.44</v>
-      </c>
-      <c r="W27">
-        <v>2.44</v>
-      </c>
-      <c r="X27">
-        <v>2.33</v>
-      </c>
-      <c r="Y27">
-        <v>1.74</v>
-      </c>
-      <c r="Z27">
-        <v>1.67</v>
-      </c>
-      <c r="AA27">
-        <v>3.41</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2">
         <v>45156</v>
@@ -3965,105 +3974,105 @@
         <v>80</v>
       </c>
       <c r="D28">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28">
+        <v>1.43</v>
+      </c>
+      <c r="H28">
+        <v>4.4</v>
+      </c>
+      <c r="I28">
+        <v>6.75</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28">
+        <v>1.22</v>
+      </c>
+      <c r="M28">
+        <v>3.8</v>
+      </c>
+      <c r="N28">
+        <v>1.61</v>
+      </c>
+      <c r="O28">
+        <v>2.05</v>
+      </c>
+      <c r="P28">
+        <v>1.33</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>1.91</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
+        <v>1.13</v>
+      </c>
+      <c r="U28">
+        <v>1.2</v>
+      </c>
+      <c r="V28">
+        <v>2.7</v>
+      </c>
+      <c r="W28">
+        <v>1.56</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>2.06</v>
+      </c>
+      <c r="Z28">
+        <v>1.44</v>
+      </c>
+      <c r="AA28">
+        <v>3.5</v>
+      </c>
+      <c r="AB28">
+        <v>1.2</v>
+      </c>
+      <c r="AC28">
+        <v>11</v>
+      </c>
+      <c r="AD28">
+        <v>5.75</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>1.24</v>
+      </c>
+      <c r="AG28">
+        <v>1.4</v>
+      </c>
+      <c r="AH28">
+        <v>1.67</v>
+      </c>
+      <c r="AI28">
         <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>3.25</v>
-      </c>
-      <c r="I28">
-        <v>3.25</v>
-      </c>
-      <c r="J28">
-        <v>1.06</v>
-      </c>
-      <c r="K28">
-        <v>8.5</v>
-      </c>
-      <c r="L28">
-        <v>1.31</v>
-      </c>
-      <c r="M28">
-        <v>3.1</v>
-      </c>
-      <c r="N28">
-        <v>2.05</v>
-      </c>
-      <c r="O28">
-        <v>1.8</v>
-      </c>
-      <c r="P28">
-        <v>1.39</v>
-      </c>
-      <c r="Q28">
-        <v>2.86</v>
-      </c>
-      <c r="R28">
-        <v>1.79</v>
-      </c>
-      <c r="S28">
-        <v>1.98</v>
-      </c>
-      <c r="T28">
-        <v>1.23</v>
-      </c>
-      <c r="U28">
-        <v>1.27</v>
-      </c>
-      <c r="V28">
-        <v>1.85</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>1.95</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2">
         <v>45156</v>
@@ -4075,58 +4084,58 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G29">
+        <v>1.97</v>
+      </c>
+      <c r="H29">
+        <v>3.2</v>
+      </c>
+      <c r="I29">
+        <v>3.75</v>
+      </c>
+      <c r="J29">
+        <v>1.1</v>
+      </c>
+      <c r="K29">
+        <v>6.5</v>
+      </c>
+      <c r="L29">
+        <v>1.42</v>
+      </c>
+      <c r="M29">
+        <v>2.75</v>
+      </c>
+      <c r="N29">
         <v>2.4</v>
       </c>
-      <c r="H29">
-        <v>3.4</v>
-      </c>
-      <c r="I29">
-        <v>2.75</v>
-      </c>
-      <c r="J29">
-        <v>1.04</v>
-      </c>
-      <c r="K29">
-        <v>9.5</v>
-      </c>
-      <c r="L29">
+      <c r="O29">
+        <v>1.44</v>
+      </c>
+      <c r="P29">
+        <v>1.49</v>
+      </c>
+      <c r="Q29">
+        <v>2.45</v>
+      </c>
+      <c r="R29">
+        <v>2.05</v>
+      </c>
+      <c r="S29">
+        <v>1.72</v>
+      </c>
+      <c r="T29">
+        <v>1.17</v>
+      </c>
+      <c r="U29">
         <v>1.28</v>
       </c>
-      <c r="M29">
-        <v>3.5</v>
-      </c>
-      <c r="N29">
-        <v>1.9</v>
-      </c>
-      <c r="O29">
-        <v>1.95</v>
-      </c>
-      <c r="P29">
-        <v>1.37</v>
-      </c>
-      <c r="Q29">
-        <v>2.85</v>
-      </c>
-      <c r="R29">
-        <v>1.68</v>
-      </c>
-      <c r="S29">
-        <v>2.1</v>
-      </c>
-      <c r="T29">
-        <v>1.42</v>
-      </c>
-      <c r="U29">
-        <v>1.25</v>
-      </c>
       <c r="V29">
-        <v>1.47</v>
+        <v>1.87</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -4144,33 +4153,33 @@
         <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AE29">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AF29">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AG29">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AH29">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="AI29">
-        <v>3.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2">
         <v>45156</v>
@@ -4179,100 +4188,100 @@
         <v>80</v>
       </c>
       <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30">
+        <v>2.9</v>
+      </c>
+      <c r="H30">
+        <v>3.38</v>
+      </c>
+      <c r="I30">
+        <v>2.33</v>
+      </c>
+      <c r="J30">
+        <v>1.05</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>1.25</v>
+      </c>
+      <c r="M30">
+        <v>3.6</v>
+      </c>
+      <c r="N30">
+        <v>1.74</v>
+      </c>
+      <c r="O30">
+        <v>1.86</v>
+      </c>
+      <c r="P30">
+        <v>1.33</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>1.67</v>
+      </c>
+      <c r="S30">
+        <v>2.1</v>
+      </c>
+      <c r="T30">
+        <v>1.5</v>
+      </c>
+      <c r="U30">
+        <v>1.3</v>
+      </c>
+      <c r="V30">
+        <v>1.44</v>
+      </c>
+      <c r="W30">
+        <v>2.44</v>
+      </c>
+      <c r="X30">
+        <v>2.33</v>
+      </c>
+      <c r="Y30">
+        <v>1.74</v>
+      </c>
+      <c r="Z30">
+        <v>1.67</v>
+      </c>
+      <c r="AA30">
+        <v>3.41</v>
+      </c>
+      <c r="AB30">
+        <v>2.15</v>
+      </c>
+      <c r="AC30">
+        <v>7.5</v>
+      </c>
+      <c r="AD30">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30">
-        <v>1.95</v>
-      </c>
-      <c r="H30">
-        <v>3.4</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>1.1</v>
-      </c>
-      <c r="K30">
-        <v>6.5</v>
-      </c>
-      <c r="L30">
-        <v>1.42</v>
-      </c>
-      <c r="M30">
-        <v>2.75</v>
-      </c>
-      <c r="N30">
-        <v>2.45</v>
-      </c>
-      <c r="O30">
-        <v>1.48</v>
-      </c>
-      <c r="P30">
-        <v>1.49</v>
-      </c>
-      <c r="Q30">
-        <v>2.45</v>
-      </c>
-      <c r="R30">
-        <v>2.05</v>
-      </c>
-      <c r="S30">
-        <v>1.72</v>
-      </c>
-      <c r="T30">
-        <v>1.17</v>
-      </c>
-      <c r="U30">
-        <v>1.28</v>
-      </c>
-      <c r="V30">
-        <v>1.87</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>1.51</v>
-      </c>
-      <c r="AC30">
-        <v>8.5</v>
-      </c>
-      <c r="AD30">
-        <v>3.16</v>
-      </c>
       <c r="AE30">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AF30">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AG30">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AH30">
-        <v>2.8</v>
+        <v>1.96</v>
       </c>
       <c r="AI30">
-        <v>4</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -4289,10 +4298,10 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -4316,10 +4325,10 @@
         <v>2.8</v>
       </c>
       <c r="N31">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="P31">
         <v>1.49</v>
@@ -4396,34 +4405,34 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G32">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>3.75</v>
       </c>
       <c r="I32">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="J32">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L32">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M32">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
         <v>2.15</v>
@@ -4435,19 +4444,19 @@
         <v>3.2</v>
       </c>
       <c r="R32">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="S32">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="T32">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="U32">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V32">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -4491,7 +4500,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2">
         <v>45156</v>
@@ -4503,58 +4512,58 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="H33">
-        <v>3.75</v>
+        <v>3.54</v>
       </c>
       <c r="I33">
-        <v>3.4</v>
+        <v>3.28</v>
       </c>
       <c r="J33">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K33">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L33">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M33">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O33">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P33">
         <v>1.3</v>
       </c>
       <c r="Q33">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R33">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S33">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T33">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U33">
         <v>1.22</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -4572,28 +4581,28 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4610,58 +4619,58 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="H34">
-        <v>3.4</v>
+        <v>4.12</v>
       </c>
       <c r="I34">
-        <v>3.1</v>
+        <v>4.16</v>
       </c>
       <c r="J34">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K34">
-        <v>9</v>
+        <v>20.5</v>
       </c>
       <c r="L34">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="M34">
-        <v>4.33</v>
+        <v>5.1</v>
       </c>
       <c r="N34">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O34">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P34">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q34">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R34">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S34">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T34">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="U34">
         <v>1.22</v>
       </c>
       <c r="V34">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -4679,28 +4688,28 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="35" spans="1:35">
@@ -4717,19 +4726,19 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G35">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="H35">
-        <v>3.5</v>
+        <v>3.43</v>
       </c>
       <c r="I35">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="J35">
         <v>1.02</v>
@@ -4744,10 +4753,10 @@
         <v>4.65</v>
       </c>
       <c r="N35">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O35">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="P35">
         <v>1.29</v>
@@ -4824,10 +4833,10 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G36">
         <v>2.2</v>
@@ -4931,10 +4940,10 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G37">
         <v>2.8</v>
@@ -5009,19 +5018,19 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="38" spans="1:35">
@@ -5035,100 +5044,100 @@
         <v>82</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G38">
+        <v>2.39</v>
+      </c>
+      <c r="H38">
+        <v>3.63</v>
+      </c>
+      <c r="I38">
+        <v>2.73</v>
+      </c>
+      <c r="J38">
+        <v>1.04</v>
+      </c>
+      <c r="K38">
+        <v>15</v>
+      </c>
+      <c r="L38">
+        <v>1.21</v>
+      </c>
+      <c r="M38">
+        <v>4.22</v>
+      </c>
+      <c r="N38">
+        <v>1.63</v>
+      </c>
+      <c r="O38">
+        <v>2.14</v>
+      </c>
+      <c r="P38">
+        <v>1.36</v>
+      </c>
+      <c r="Q38">
+        <v>3.4</v>
+      </c>
+      <c r="R38">
+        <v>1.57</v>
+      </c>
+      <c r="S38">
+        <v>2.35</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38">
+        <v>1.33</v>
+      </c>
+      <c r="V38">
+        <v>1.72</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>1.95</v>
+      </c>
+      <c r="AC38">
+        <v>7</v>
+      </c>
+      <c r="AD38">
         <v>2.25</v>
       </c>
-      <c r="H38">
-        <v>3.25</v>
-      </c>
-      <c r="I38">
-        <v>3.25</v>
-      </c>
-      <c r="J38">
-        <v>1.07</v>
-      </c>
-      <c r="K38">
-        <v>7</v>
-      </c>
-      <c r="L38">
-        <v>1.4</v>
-      </c>
-      <c r="M38">
-        <v>2.7</v>
-      </c>
-      <c r="N38">
-        <v>2.2</v>
-      </c>
-      <c r="O38">
-        <v>1.6</v>
-      </c>
-      <c r="P38">
-        <v>1.5</v>
-      </c>
-      <c r="Q38">
-        <v>2.5</v>
-      </c>
-      <c r="R38">
-        <v>1.95</v>
-      </c>
-      <c r="S38">
-        <v>1.8</v>
-      </c>
-      <c r="T38">
-        <v>1.36</v>
-      </c>
-      <c r="U38">
-        <v>1.3</v>
-      </c>
-      <c r="V38">
-        <v>1.53</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>1.93</v>
-      </c>
-      <c r="AC38">
-        <v>7.9</v>
-      </c>
-      <c r="AD38">
-        <v>2.17</v>
-      </c>
       <c r="AE38">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AF38">
-        <v>1.93</v>
+        <v>1.47</v>
       </c>
       <c r="AG38">
+        <v>1.88</v>
+      </c>
+      <c r="AH38">
         <v>2.4</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>3.4</v>
-      </c>
-      <c r="AI38">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -5145,10 +5154,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G39">
         <v>1.3</v>
@@ -5240,7 +5249,7 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
         <v>45156</v>
@@ -5252,102 +5261,102 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G40">
-        <v>3.6</v>
+        <v>2.42</v>
       </c>
       <c r="H40">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>2.77</v>
       </c>
       <c r="J40">
         <v>1.05</v>
       </c>
       <c r="K40">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L40">
+        <v>1.25</v>
+      </c>
+      <c r="M40">
+        <v>3.82</v>
+      </c>
+      <c r="N40">
+        <v>1.74</v>
+      </c>
+      <c r="O40">
+        <v>1.97</v>
+      </c>
+      <c r="P40">
+        <v>1.4</v>
+      </c>
+      <c r="Q40">
+        <v>3.2</v>
+      </c>
+      <c r="R40">
+        <v>1.65</v>
+      </c>
+      <c r="S40">
+        <v>2.25</v>
+      </c>
+      <c r="T40">
+        <v>1.45</v>
+      </c>
+      <c r="U40">
+        <v>1.33</v>
+      </c>
+      <c r="V40">
+        <v>1.65</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>1.75</v>
+      </c>
+      <c r="AC40">
+        <v>7</v>
+      </c>
+      <c r="AD40">
+        <v>2.63</v>
+      </c>
+      <c r="AE40">
         <v>1.3</v>
       </c>
-      <c r="M40">
-        <v>3.5</v>
-      </c>
-      <c r="N40">
-        <v>1.9</v>
-      </c>
-      <c r="O40">
-        <v>1.87</v>
-      </c>
-      <c r="P40">
-        <v>1.38</v>
-      </c>
-      <c r="Q40">
-        <v>2.85</v>
-      </c>
-      <c r="R40">
-        <v>1.75</v>
-      </c>
-      <c r="S40">
-        <v>2.05</v>
-      </c>
-      <c r="T40">
-        <v>1.8</v>
-      </c>
-      <c r="U40">
-        <v>1.25</v>
-      </c>
-      <c r="V40">
-        <v>1.28</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2">
         <v>45156</v>
@@ -5359,97 +5368,97 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G41">
+        <v>1.83</v>
+      </c>
+      <c r="H41">
+        <v>3.7</v>
+      </c>
+      <c r="I41">
+        <v>3.67</v>
+      </c>
+      <c r="J41">
+        <v>1.02</v>
+      </c>
+      <c r="K41">
+        <v>17</v>
+      </c>
+      <c r="L41">
+        <v>1.18</v>
+      </c>
+      <c r="M41">
+        <v>4.5</v>
+      </c>
+      <c r="N41">
+        <v>1.58</v>
+      </c>
+      <c r="O41">
         <v>2.2</v>
       </c>
-      <c r="H41">
-        <v>3.4</v>
-      </c>
-      <c r="I41">
+      <c r="P41">
+        <v>1.3</v>
+      </c>
+      <c r="Q41">
+        <v>3.3</v>
+      </c>
+      <c r="R41">
+        <v>1.55</v>
+      </c>
+      <c r="S41">
+        <v>2.25</v>
+      </c>
+      <c r="T41">
+        <v>1.27</v>
+      </c>
+      <c r="U41">
+        <v>1.23</v>
+      </c>
+      <c r="V41">
+        <v>1.88</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>1.6</v>
+      </c>
+      <c r="AC41">
+        <v>7</v>
+      </c>
+      <c r="AD41">
         <v>3</v>
-      </c>
-      <c r="J41">
-        <v>1.04</v>
-      </c>
-      <c r="K41">
-        <v>15</v>
-      </c>
-      <c r="L41">
-        <v>1.21</v>
-      </c>
-      <c r="M41">
-        <v>4.22</v>
-      </c>
-      <c r="N41">
-        <v>1.65</v>
-      </c>
-      <c r="O41">
-        <v>2.1</v>
-      </c>
-      <c r="P41">
-        <v>1.36</v>
-      </c>
-      <c r="Q41">
-        <v>3.4</v>
-      </c>
-      <c r="R41">
-        <v>1.57</v>
-      </c>
-      <c r="S41">
-        <v>2.35</v>
-      </c>
-      <c r="T41">
-        <v>1.4</v>
-      </c>
-      <c r="U41">
-        <v>1.33</v>
-      </c>
-      <c r="V41">
-        <v>1.72</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
       </c>
       <c r="AE41">
         <v>1.25</v>
       </c>
       <c r="AF41">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AG41">
         <v>1.88</v>
       </c>
       <c r="AH41">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="AI41">
-        <v>3.4</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -5463,100 +5472,100 @@
         <v>82</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G42">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="H42">
+        <v>3.14</v>
+      </c>
+      <c r="I42">
+        <v>2.79</v>
+      </c>
+      <c r="J42">
+        <v>1.07</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <v>1.4</v>
+      </c>
+      <c r="M42">
+        <v>2.7</v>
+      </c>
+      <c r="N42">
+        <v>2.2</v>
+      </c>
+      <c r="O42">
+        <v>1.6</v>
+      </c>
+      <c r="P42">
+        <v>1.5</v>
+      </c>
+      <c r="Q42">
+        <v>2.5</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.8</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>1.3</v>
+      </c>
+      <c r="V42">
+        <v>1.53</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>1.93</v>
+      </c>
+      <c r="AC42">
+        <v>7.9</v>
+      </c>
+      <c r="AD42">
+        <v>2.17</v>
+      </c>
+      <c r="AE42">
+        <v>1.44</v>
+      </c>
+      <c r="AF42">
+        <v>1.93</v>
+      </c>
+      <c r="AG42">
+        <v>2.4</v>
+      </c>
+      <c r="AH42">
         <v>3.4</v>
       </c>
-      <c r="I42">
-        <v>2.75</v>
-      </c>
-      <c r="J42">
-        <v>1.05</v>
-      </c>
-      <c r="K42">
-        <v>13</v>
-      </c>
-      <c r="L42">
-        <v>1.25</v>
-      </c>
-      <c r="M42">
-        <v>3.82</v>
-      </c>
-      <c r="N42">
-        <v>1.7</v>
-      </c>
-      <c r="O42">
-        <v>2</v>
-      </c>
-      <c r="P42">
-        <v>1.4</v>
-      </c>
-      <c r="Q42">
-        <v>3.2</v>
-      </c>
-      <c r="R42">
-        <v>1.65</v>
-      </c>
-      <c r="S42">
-        <v>2.25</v>
-      </c>
-      <c r="T42">
-        <v>1.45</v>
-      </c>
-      <c r="U42">
-        <v>1.33</v>
-      </c>
-      <c r="V42">
-        <v>1.65</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>1.3</v>
-      </c>
-      <c r="AF42">
-        <v>1.55</v>
-      </c>
-      <c r="AG42">
-        <v>1.98</v>
-      </c>
-      <c r="AH42">
-        <v>2.65</v>
-      </c>
       <c r="AI42">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="43" spans="1:35">
@@ -5573,102 +5582,102 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G43">
-        <v>1.83</v>
+        <v>3.6</v>
       </c>
       <c r="H43">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I43">
-        <v>3.67</v>
+        <v>2</v>
       </c>
       <c r="J43">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K43">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L43">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="M43">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N43">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="O43">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="P43">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="Q43">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="R43">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="S43">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="T43">
+        <v>1.8</v>
+      </c>
+      <c r="U43">
+        <v>1.25</v>
+      </c>
+      <c r="V43">
+        <v>1.28</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
         <v>1.27</v>
       </c>
-      <c r="U43">
-        <v>1.23</v>
-      </c>
-      <c r="V43">
-        <v>1.88</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
       <c r="AF43">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2">
         <v>45156</v>
@@ -5680,58 +5689,58 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G44">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H44">
         <v>3.75</v>
       </c>
       <c r="I44">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="J44">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K44">
-        <v>20.5</v>
+        <v>13</v>
       </c>
       <c r="L44">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M44">
-        <v>5.1</v>
+        <v>4.33</v>
       </c>
       <c r="N44">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="O44">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="P44">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="R44">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="S44">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="T44">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="U44">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V44">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -5767,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="AH44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI44">
         <v>0</v>
@@ -5787,19 +5796,19 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="H45">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I45">
-        <v>3.5</v>
+        <v>2.97</v>
       </c>
       <c r="J45">
         <v>1.07</v>
@@ -5894,19 +5903,19 @@
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G46">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="H46">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="I46">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="J46">
         <v>1.06</v>
@@ -5972,7 +5981,7 @@
         <v>2.39</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF46">
         <v>1.38</v>
@@ -6001,19 +6010,19 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G47">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H47">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="I47">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J47">
         <v>1.06</v>
@@ -6028,10 +6037,10 @@
         <v>3.25</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O47">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="P47">
         <v>1.4</v>
@@ -6108,31 +6117,31 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G48">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H48">
-        <v>4.5</v>
+        <v>4.79</v>
       </c>
       <c r="I48">
-        <v>4.75</v>
+        <v>5.53</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="N48">
         <v>1.53</v>
@@ -6141,25 +6150,25 @@
         <v>2.35</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="R48">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="W48">
         <v>3</v>
@@ -6177,28 +6186,28 @@
         <v>3.1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE48">
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG48">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH48">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI48">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="49" spans="1:35">
@@ -6215,10 +6224,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G49">
         <v>9</v>
@@ -6242,10 +6251,10 @@
         <v>7.5</v>
       </c>
       <c r="N49">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
         <v>1.18</v>
@@ -6322,19 +6331,19 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G50">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H50">
-        <v>3.2</v>
+        <v>3.52</v>
       </c>
       <c r="I50">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="J50">
         <v>1.02</v>
@@ -6391,13 +6400,13 @@
         <v>2.33</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE50">
         <v>0</v>
@@ -6406,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AI50">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="51" spans="1:35">
@@ -6429,19 +6438,19 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G51">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H51">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I51">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="J51">
         <v>1.07</v>
@@ -6459,7 +6468,7 @@
         <v>2</v>
       </c>
       <c r="O51">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P51">
         <v>1.44</v>
@@ -6536,58 +6545,58 @@
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>4.72</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W52">
         <v>0</v>
@@ -6643,19 +6652,19 @@
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -6670,31 +6679,31 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W53">
         <v>0</v>
@@ -6738,7 +6747,7 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2">
         <v>45156</v>
@@ -6750,58 +6759,58 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -6819,33 +6828,33 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2">
         <v>45156</v>
@@ -6854,105 +6863,105 @@
         <v>85</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G55">
+        <v>4.6</v>
+      </c>
+      <c r="H55">
+        <v>3.9</v>
+      </c>
+      <c r="I55">
+        <v>1.7</v>
+      </c>
+      <c r="J55">
+        <v>1.03</v>
+      </c>
+      <c r="K55">
+        <v>17.5</v>
+      </c>
+      <c r="L55">
+        <v>1.19</v>
+      </c>
+      <c r="M55">
+        <v>4.78</v>
+      </c>
+      <c r="N55">
+        <v>1.53</v>
+      </c>
+      <c r="O55">
+        <v>2.2</v>
+      </c>
+      <c r="P55">
+        <v>1.3</v>
+      </c>
+      <c r="Q55">
+        <v>3.4</v>
+      </c>
+      <c r="R55">
+        <v>1.58</v>
+      </c>
+      <c r="S55">
+        <v>2.2</v>
+      </c>
+      <c r="T55">
+        <v>2.05</v>
+      </c>
+      <c r="U55">
+        <v>1.25</v>
+      </c>
+      <c r="V55">
+        <v>1.23</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>1.67</v>
+      </c>
+      <c r="Z55">
+        <v>1.11</v>
+      </c>
+      <c r="AA55">
+        <v>2.78</v>
+      </c>
+      <c r="AB55">
+        <v>3.1</v>
+      </c>
+      <c r="AC55">
+        <v>9</v>
+      </c>
+      <c r="AD55">
+        <v>1.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.18</v>
+      </c>
+      <c r="AF55">
+        <v>1.37</v>
+      </c>
+      <c r="AG55">
+        <v>1.65</v>
+      </c>
+      <c r="AH55">
         <v>2.1</v>
       </c>
-      <c r="H55">
-        <v>3.4</v>
-      </c>
-      <c r="I55">
-        <v>3.5</v>
-      </c>
-      <c r="J55">
-        <v>1.08</v>
-      </c>
-      <c r="K55">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L55">
-        <v>1.42</v>
-      </c>
-      <c r="M55">
-        <v>2.99</v>
-      </c>
-      <c r="N55">
-        <v>2.09</v>
-      </c>
-      <c r="O55">
-        <v>1.66</v>
-      </c>
-      <c r="P55">
-        <v>1.44</v>
-      </c>
-      <c r="Q55">
-        <v>2.63</v>
-      </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
-      <c r="S55">
-        <v>1.75</v>
-      </c>
-      <c r="T55">
-        <v>1.23</v>
-      </c>
-      <c r="U55">
-        <v>1.3</v>
-      </c>
-      <c r="V55">
-        <v>1.85</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>1.52</v>
-      </c>
-      <c r="AC55">
-        <v>8.5</v>
-      </c>
-      <c r="AD55">
-        <v>3</v>
-      </c>
-      <c r="AE55">
-        <v>1.24</v>
-      </c>
-      <c r="AF55">
-        <v>1.46</v>
-      </c>
-      <c r="AG55">
-        <v>1.79</v>
-      </c>
-      <c r="AH55">
-        <v>2.25</v>
-      </c>
       <c r="AI55">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2">
         <v>45156</v>
@@ -6961,61 +6970,61 @@
         <v>85</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F56" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G56">
-        <v>4.75</v>
+        <v>1.72</v>
       </c>
       <c r="H56">
-        <v>3.8</v>
+        <v>3.56</v>
       </c>
       <c r="I56">
-        <v>1.67</v>
+        <v>4.17</v>
       </c>
       <c r="J56">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K56">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="L56">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="M56">
-        <v>4.78</v>
+        <v>3.6</v>
       </c>
       <c r="N56">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O56">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="P56">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q56">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R56">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="S56">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="T56">
-        <v>2.05</v>
+        <v>1.18</v>
       </c>
       <c r="U56">
         <v>1.25</v>
       </c>
       <c r="V56">
-        <v>1.23</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -7024,37 +7033,37 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD56">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE56">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AG56">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AH56">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AI56">
-        <v>2.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -7071,19 +7080,19 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I57">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J57">
         <v>1.06</v>
@@ -7098,10 +7107,10 @@
         <v>3.25</v>
       </c>
       <c r="N57">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="P57">
         <v>1.43</v>
@@ -7178,13 +7187,13 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G58">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H58">
         <v>4</v>
@@ -7205,10 +7214,10 @@
         <v>4</v>
       </c>
       <c r="N58">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O58">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="P58">
         <v>1.31</v>
@@ -7285,19 +7294,19 @@
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G59">
-        <v>7.5</v>
+        <v>6.85</v>
       </c>
       <c r="H59">
-        <v>4.5</v>
+        <v>4.38</v>
       </c>
       <c r="I59">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -7392,10 +7401,10 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F60" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G60">
         <v>2.2</v>
@@ -7461,25 +7470,25 @@
         <v>2.88</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE60">
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG60">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH60">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AI60">
         <v>0</v>
@@ -7499,10 +7508,10 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F61" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G61">
         <v>1.75</v>
@@ -7526,10 +7535,10 @@
         <v>2.95</v>
       </c>
       <c r="N61">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="O61">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P61">
         <v>1.41</v>
@@ -7606,19 +7615,19 @@
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F62" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G62">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I62">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="J62">
         <v>1.09</v>
@@ -7633,10 +7642,10 @@
         <v>2.6</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="O62">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P62">
         <v>1.52</v>
@@ -7701,7 +7710,7 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2">
         <v>45156</v>
@@ -7713,102 +7722,102 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G63">
+        <v>1.93</v>
+      </c>
+      <c r="H63">
+        <v>3.52</v>
+      </c>
+      <c r="I63">
+        <v>3.84</v>
+      </c>
+      <c r="J63">
+        <v>1.02</v>
+      </c>
+      <c r="K63">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L63">
+        <v>1.29</v>
+      </c>
+      <c r="M63">
+        <v>3.22</v>
+      </c>
+      <c r="N63">
+        <v>1.93</v>
+      </c>
+      <c r="O63">
+        <v>1.85</v>
+      </c>
+      <c r="P63">
+        <v>1.41</v>
+      </c>
+      <c r="Q63">
+        <v>2.94</v>
+      </c>
+      <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>1.9</v>
+      </c>
+      <c r="T63">
+        <v>1.25</v>
+      </c>
+      <c r="U63">
+        <v>1.27</v>
+      </c>
+      <c r="V63">
+        <v>1.81</v>
+      </c>
+      <c r="W63">
+        <v>1.56</v>
+      </c>
+      <c r="X63">
+        <v>0.64</v>
+      </c>
+      <c r="Y63">
+        <v>1.36</v>
+      </c>
+      <c r="Z63">
+        <v>1.04</v>
+      </c>
+      <c r="AA63">
         <v>2.4</v>
       </c>
-      <c r="H63">
-        <v>3.1</v>
-      </c>
-      <c r="I63">
-        <v>3.1</v>
-      </c>
-      <c r="J63">
-        <v>1.08</v>
-      </c>
-      <c r="K63">
-        <v>6.5</v>
-      </c>
-      <c r="L63">
-        <v>1.44</v>
-      </c>
-      <c r="M63">
-        <v>2.6</v>
-      </c>
-      <c r="N63">
-        <v>2.4</v>
-      </c>
-      <c r="O63">
-        <v>1.53</v>
-      </c>
-      <c r="P63">
-        <v>1.53</v>
-      </c>
-      <c r="Q63">
-        <v>2.38</v>
-      </c>
-      <c r="R63">
+      <c r="AB63">
+        <v>1.61</v>
+      </c>
+      <c r="AC63">
+        <v>9</v>
+      </c>
+      <c r="AD63">
+        <v>2.68</v>
+      </c>
+      <c r="AE63">
+        <v>1.24</v>
+      </c>
+      <c r="AF63">
+        <v>1.56</v>
+      </c>
+      <c r="AG63">
         <v>2</v>
       </c>
-      <c r="S63">
-        <v>1.73</v>
-      </c>
-      <c r="T63">
-        <v>1.43</v>
-      </c>
-      <c r="U63">
-        <v>1.38</v>
-      </c>
-      <c r="V63">
-        <v>1.5</v>
-      </c>
-      <c r="W63">
-        <v>1.31</v>
-      </c>
-      <c r="X63">
-        <v>1</v>
-      </c>
-      <c r="Y63">
-        <v>1.6</v>
-      </c>
-      <c r="Z63">
-        <v>1.31</v>
-      </c>
-      <c r="AA63">
-        <v>2.91</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
       <c r="AH63">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AI63">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2">
         <v>45156</v>
@@ -7817,105 +7826,105 @@
         <v>89</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F64" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G64">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P64">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="Z64">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AB64">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD64">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AE64">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AF64">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AG64">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AH64">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AI64">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2">
         <v>45156</v>
@@ -7924,105 +7933,105 @@
         <v>89</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F65" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AI65">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
         <v>45156</v>
@@ -8034,94 +8043,94 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F66" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W66">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE66">
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG66">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI66">
         <v>0</v>
@@ -8129,7 +8138,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2">
         <v>45156</v>
@@ -8138,76 +8147,76 @@
         <v>89</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F67" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G67">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -8225,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="AG67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH67">
         <v>0</v>
@@ -8248,19 +8257,19 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G68">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>4.97</v>
       </c>
       <c r="I68">
-        <v>5.75</v>
+        <v>7.48</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -8275,10 +8284,10 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -8355,10 +8364,10 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F69" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G69">
         <v>1.67</v>
@@ -8424,28 +8433,135 @@
         <v>2.75</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="AE69">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF69">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG69">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH69">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AI69">
         <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C70" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>161</v>
+      </c>
+      <c r="F70" t="s">
+        <v>230</v>
+      </c>
+      <c r="G70">
+        <v>2.74</v>
+      </c>
+      <c r="H70">
+        <v>2.87</v>
+      </c>
+      <c r="I70">
+        <v>2.88</v>
+      </c>
+      <c r="J70">
+        <v>1.11</v>
+      </c>
+      <c r="K70">
+        <v>6.5</v>
+      </c>
+      <c r="L70">
+        <v>1.44</v>
+      </c>
+      <c r="M70">
+        <v>2.4</v>
+      </c>
+      <c r="N70">
+        <v>2.55</v>
+      </c>
+      <c r="O70">
+        <v>1.45</v>
+      </c>
+      <c r="P70">
+        <v>1.59</v>
+      </c>
+      <c r="Q70">
+        <v>2.24</v>
+      </c>
+      <c r="R70">
+        <v>2.15</v>
+      </c>
+      <c r="S70">
+        <v>1.65</v>
+      </c>
+      <c r="T70">
+        <v>1.42</v>
+      </c>
+      <c r="U70">
+        <v>1.33</v>
+      </c>
+      <c r="V70">
+        <v>1.45</v>
+      </c>
+      <c r="W70">
+        <v>2.09</v>
+      </c>
+      <c r="X70">
+        <v>1.27</v>
+      </c>
+      <c r="Y70">
+        <v>1.36</v>
+      </c>
+      <c r="Z70">
+        <v>1.2</v>
+      </c>
+      <c r="AA70">
+        <v>2.56</v>
+      </c>
+      <c r="AB70">
+        <v>1.95</v>
+      </c>
+      <c r="AC70">
+        <v>7</v>
+      </c>
+      <c r="AD70">
+        <v>2.25</v>
+      </c>
+      <c r="AE70">
+        <v>1.16</v>
+      </c>
+      <c r="AF70">
+        <v>1.25</v>
+      </c>
+      <c r="AG70">
+        <v>1.46</v>
+      </c>
+      <c r="AH70">
+        <v>1.93</v>
+      </c>
+      <c r="AI70">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -139,18 +139,18 @@
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
+    <t>Serbia SuperLiga</t>
+  </si>
+  <si>
+    <t>Poland Ekstraklasa</t>
+  </si>
+  <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
-  </si>
-  <si>
-    <t>Poland Ekstraklasa</t>
-  </si>
-  <si>
-    <t>Serbia SuperLiga</t>
-  </si>
-  <si>
     <t>Austria 2. Liga</t>
   </si>
   <si>
@@ -160,18 +160,18 @@
     <t>Russia Russian Premier League</t>
   </si>
   <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
+    <t>Denmark Superliga</t>
+  </si>
+  <si>
+    <t>Portugal LigaPro</t>
+  </si>
+  <si>
     <t>Germany 3. Liga</t>
   </si>
   <si>
-    <t>Portugal LigaPro</t>
-  </si>
-  <si>
-    <t>Denmark Superliga</t>
-  </si>
-  <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
     <t>Spain Segunda División</t>
   </si>
   <si>
@@ -187,12 +187,12 @@
     <t>Netherlands Eredivisie</t>
   </si>
   <si>
+    <t>Greece Super League</t>
+  </si>
+  <si>
     <t>Turkey Süper Lig</t>
   </si>
   <si>
-    <t>Greece Super League</t>
-  </si>
-  <si>
     <t>Germany Bundesliga</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>Argentina Primera División</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
@@ -307,15 +307,15 @@
     <t>Urawa Reds</t>
   </si>
   <si>
+    <t>Shandong Luneng</t>
+  </si>
+  <si>
     <t>Zhejiang FC</t>
   </si>
   <si>
     <t>Shanghai SIPG</t>
   </si>
   <si>
-    <t>Shandong Luneng</t>
-  </si>
-  <si>
     <t>Lahti</t>
   </si>
   <si>
@@ -328,33 +328,33 @@
     <t>Bravo</t>
   </si>
   <si>
+    <t>IMT Novi Beograd</t>
+  </si>
+  <si>
+    <t>Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t>Lokomotiv Sofia 1929</t>
+  </si>
+  <si>
     <t>Harju Jalgpallikool</t>
   </si>
   <si>
-    <t>Lokomotiv Sofia 1929</t>
-  </si>
-  <si>
-    <t>Zagłębie Lubin</t>
-  </si>
-  <si>
-    <t>IMT Novi Beograd</t>
+    <t>Liefering</t>
+  </si>
+  <si>
+    <t>Amstetten</t>
   </si>
   <si>
     <t>Floridsdorfer AC</t>
   </si>
   <si>
+    <t>Horn</t>
+  </si>
+  <si>
     <t>Ried</t>
   </si>
   <si>
-    <t>Horn</t>
-  </si>
-  <si>
-    <t>Amstetten</t>
-  </si>
-  <si>
-    <t>Liefering</t>
-  </si>
-  <si>
     <t>Kaiserslautern</t>
   </si>
   <si>
@@ -364,66 +364,66 @@
     <t>Rubin Kazan</t>
   </si>
   <si>
+    <t>GAIS</t>
+  </si>
+  <si>
+    <t>Utsikten</t>
+  </si>
+  <si>
+    <t>Hvidovre</t>
+  </si>
+  <si>
+    <t>CS Marítimo</t>
+  </si>
+  <si>
     <t>Sandhausen</t>
   </si>
   <si>
-    <t>CS Marítimo</t>
-  </si>
-  <si>
-    <t>Hvidovre</t>
-  </si>
-  <si>
-    <t>GAIS</t>
-  </si>
-  <si>
     <t>FC Andorra</t>
   </si>
   <si>
-    <t>Utsikten</t>
-  </si>
-  <si>
     <t>RCD Mallorca</t>
   </si>
   <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>FCV Dender EH</t>
+  </si>
+  <si>
+    <t>Lommel United</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
     <t>Helmond Sport</t>
   </si>
   <si>
-    <t>FCV Dender EH</t>
-  </si>
-  <si>
-    <t>Lommel United</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
-    <t>Oss</t>
+    <t>NAC Breda</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
   </si>
   <si>
     <t>İstanbulspor</t>
   </si>
   <si>
-    <t>Willem II</t>
-  </si>
-  <si>
     <t>Antalyaspor</t>
   </si>
   <si>
-    <t>NAC Breda</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
     <t>Telstar</t>
   </si>
   <si>
-    <t>Emmen</t>
-  </si>
-  <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
@@ -445,21 +445,21 @@
     <t>Bari 1908</t>
   </si>
   <si>
+    <t>Penybont</t>
+  </si>
+  <si>
+    <t>Caernarfon Town</t>
+  </si>
+  <si>
     <t>Connah's Quay</t>
   </si>
   <si>
-    <t>Caernarfon Town</t>
-  </si>
-  <si>
     <t>Nottingham Forest</t>
   </si>
   <si>
     <t>OH Leuven</t>
   </si>
   <si>
-    <t>Penybont</t>
-  </si>
-  <si>
     <t>Leeds United</t>
   </si>
   <si>
@@ -478,21 +478,21 @@
     <t>Real Zaragoza</t>
   </si>
   <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Unión Santa Fe</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Luton Town</t>
+  </si>
+  <si>
     <t>Deportivo Maldonado</t>
   </si>
   <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Vitória</t>
-  </si>
-  <si>
-    <t>Unión Santa Fe</t>
-  </si>
-  <si>
-    <t>Luton Town</t>
-  </si>
-  <si>
     <t>Olimpia</t>
   </si>
   <si>
@@ -514,15 +514,15 @@
     <t>Nagoya Grampus</t>
   </si>
   <si>
+    <t>Tianjin Teda</t>
+  </si>
+  <si>
     <t>Qingdao Jonoon</t>
   </si>
   <si>
     <t>Meizhou Hakka</t>
   </si>
   <si>
-    <t>Tianjin Teda</t>
-  </si>
-  <si>
     <t>VPS</t>
   </si>
   <si>
@@ -535,33 +535,33 @@
     <t>Koper</t>
   </si>
   <si>
+    <t>Čukarički</t>
+  </si>
+  <si>
+    <t>Puszcza Niepołomice</t>
+  </si>
+  <si>
+    <t>Hebar 1918</t>
+  </si>
+  <si>
     <t>Trans</t>
   </si>
   <si>
-    <t>Hebar 1918</t>
-  </si>
-  <si>
-    <t>Puszcza Niepołomice</t>
-  </si>
-  <si>
-    <t>Čukarički</t>
+    <t>Schwarz-Weiß Bregenz</t>
+  </si>
+  <si>
+    <t>SV Stripfing Weiden</t>
   </si>
   <si>
     <t>Lafnitz</t>
   </si>
   <si>
+    <t>First Vienna</t>
+  </si>
+  <si>
     <t>Leoben</t>
   </si>
   <si>
-    <t>First Vienna</t>
-  </si>
-  <si>
-    <t>SV Stripfing Weiden</t>
-  </si>
-  <si>
-    <t>Schwarz-Weiß Bregenz</t>
-  </si>
-  <si>
     <t>Elversberg</t>
   </si>
   <si>
@@ -571,66 +571,66 @@
     <t>Krylya Sovetov</t>
   </si>
   <si>
+    <t>AFC Eskilstuna</t>
+  </si>
+  <si>
+    <t>Västerås SK</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
+    <t>AVS</t>
+  </si>
+  <si>
     <t>Dynamo Dresden</t>
   </si>
   <si>
-    <t>AVS</t>
-  </si>
-  <si>
-    <t>København</t>
-  </si>
-  <si>
-    <t>AFC Eskilstuna</t>
-  </si>
-  <si>
     <t>FC Cartagena</t>
   </si>
   <si>
-    <t>Västerås SK</t>
-  </si>
-  <si>
     <t>Villarreal</t>
   </si>
   <si>
+    <t>Roda JC</t>
+  </si>
+  <si>
+    <t>PSV II</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht II</t>
+  </si>
+  <si>
+    <t>Club Brugge II</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>VVV</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
     <t>Den Bosch</t>
   </si>
   <si>
-    <t>RSC Anderlecht II</t>
-  </si>
-  <si>
-    <t>Club Brugge II</t>
-  </si>
-  <si>
-    <t>NEC</t>
-  </si>
-  <si>
-    <t>Roda JC</t>
-  </si>
-  <si>
-    <t>PSV II</t>
+    <t>AZ II</t>
+  </si>
+  <si>
+    <t>Lamia</t>
   </si>
   <si>
     <t>Kayserispor</t>
   </si>
   <si>
-    <t>Dordrecht</t>
-  </si>
-  <si>
     <t>Konyaspor</t>
   </si>
   <si>
-    <t>AZ II</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
     <t>Cambuur</t>
   </si>
   <si>
-    <t>VVV</t>
-  </si>
-  <si>
     <t>Arda</t>
   </si>
   <si>
@@ -652,21 +652,21 @@
     <t>Palermo</t>
   </si>
   <si>
+    <t>Haverfordwest County</t>
+  </si>
+  <si>
+    <t>Newtown</t>
+  </si>
+  <si>
     <t>Aberystwyth Town</t>
   </si>
   <si>
-    <t>Newtown</t>
-  </si>
-  <si>
     <t>Sheffield United</t>
   </si>
   <si>
     <t>Royal Antwerp FC</t>
   </si>
   <si>
-    <t>Haverfordwest County</t>
-  </si>
-  <si>
     <t>West Bromwich Albion</t>
   </si>
   <si>
@@ -685,19 +685,19 @@
     <t>Real Valladolid</t>
   </si>
   <si>
+    <t>Lecco</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
     <t>Plaza Colonia</t>
-  </si>
-  <si>
-    <t>Lecco</t>
-  </si>
-  <si>
-    <t>Botafogo SP</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
-  </si>
-  <si>
-    <t>Burnley</t>
   </si>
   <si>
     <t>Guaireña</t>
@@ -1201,13 +1201,13 @@
         <v>162</v>
       </c>
       <c r="G2">
-        <v>1.86</v>
+        <v>2.27</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="J2">
         <v>1.08</v>
@@ -1222,10 +1222,10 @@
         <v>2.62</v>
       </c>
       <c r="N2">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="O2">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P2">
         <v>1.49</v>
@@ -1249,10 +1249,10 @@
         <v>1.6</v>
       </c>
       <c r="W2">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="X2">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="Y2">
         <v>1.44</v>
@@ -1308,13 +1308,13 @@
         <v>163</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H3">
         <v>3.3</v>
       </c>
       <c r="I3">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="J3">
         <v>1.05</v>
@@ -1329,10 +1329,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="O3">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -1356,10 +1356,10 @@
         <v>1.38</v>
       </c>
       <c r="W3">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="X3">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="Y3">
         <v>1.33</v>
@@ -1415,13 +1415,13 @@
         <v>164</v>
       </c>
       <c r="G4">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="H4">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>1.08</v>
@@ -1436,10 +1436,10 @@
         <v>2.75</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="O4">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P4">
         <v>1.44</v>
@@ -1463,10 +1463,10 @@
         <v>1.53</v>
       </c>
       <c r="W4">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="X4">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="Y4">
         <v>1.58</v>
@@ -1522,13 +1522,13 @@
         <v>165</v>
       </c>
       <c r="G5">
-        <v>2.16</v>
+        <v>2.33</v>
       </c>
       <c r="H5">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="I5">
-        <v>3.31</v>
+        <v>3.15</v>
       </c>
       <c r="J5">
         <v>1.09</v>
@@ -1543,10 +1543,10 @@
         <v>2.48</v>
       </c>
       <c r="N5">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O5">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P5">
         <v>1.57</v>
@@ -1570,10 +1570,10 @@
         <v>1.57</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X5">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="Y5">
         <v>1.64</v>
@@ -1629,91 +1629,91 @@
         <v>166</v>
       </c>
       <c r="G6">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>1.03</v>
+      </c>
+      <c r="K6">
+        <v>17.25</v>
+      </c>
+      <c r="L6">
+        <v>1.2</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="I6">
-        <v>5.25</v>
-      </c>
-      <c r="J6">
-        <v>1.04</v>
-      </c>
-      <c r="K6">
-        <v>15.75</v>
-      </c>
-      <c r="L6">
-        <v>1.18</v>
-      </c>
-      <c r="M6">
-        <v>4.15</v>
-      </c>
       <c r="N6">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="O6">
+        <v>2.23</v>
+      </c>
+      <c r="P6">
+        <v>1.3</v>
+      </c>
+      <c r="Q6">
+        <v>3.2</v>
+      </c>
+      <c r="R6">
+        <v>1.91</v>
+      </c>
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
+        <v>1.07</v>
+      </c>
+      <c r="U6">
+        <v>1.17</v>
+      </c>
+      <c r="V6">
+        <v>3.2</v>
+      </c>
+      <c r="W6">
+        <v>2.42</v>
+      </c>
+      <c r="X6">
+        <v>1.17</v>
+      </c>
+      <c r="Y6">
+        <v>1.74</v>
+      </c>
+      <c r="Z6">
+        <v>1.09</v>
+      </c>
+      <c r="AA6">
+        <v>2.83</v>
+      </c>
+      <c r="AB6">
+        <v>1.16</v>
+      </c>
+      <c r="AC6">
+        <v>10.5</v>
+      </c>
+      <c r="AD6">
+        <v>7.1</v>
+      </c>
+      <c r="AE6">
+        <v>1.34</v>
+      </c>
+      <c r="AF6">
+        <v>1.62</v>
+      </c>
+      <c r="AG6">
         <v>2.1</v>
       </c>
-      <c r="P6">
-        <v>1.32</v>
-      </c>
-      <c r="Q6">
-        <v>3.22</v>
-      </c>
-      <c r="R6">
-        <v>1.75</v>
-      </c>
-      <c r="S6">
-        <v>2.01</v>
-      </c>
-      <c r="T6">
-        <v>1.13</v>
-      </c>
-      <c r="U6">
-        <v>1.23</v>
-      </c>
-      <c r="V6">
-        <v>2.48</v>
-      </c>
-      <c r="W6">
-        <v>1.73</v>
-      </c>
-      <c r="X6">
-        <v>0.18</v>
-      </c>
-      <c r="Y6">
-        <v>1.4</v>
-      </c>
-      <c r="Z6">
-        <v>1.23</v>
-      </c>
-      <c r="AA6">
-        <v>2.63</v>
-      </c>
-      <c r="AB6">
-        <v>1.33</v>
-      </c>
-      <c r="AC6">
-        <v>9</v>
-      </c>
-      <c r="AD6">
-        <v>3.75</v>
-      </c>
-      <c r="AE6">
-        <v>1.32</v>
-      </c>
-      <c r="AF6">
-        <v>1.57</v>
-      </c>
-      <c r="AG6">
-        <v>2</v>
-      </c>
       <c r="AH6">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AI6">
-        <v>3.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1736,91 +1736,91 @@
         <v>167</v>
       </c>
       <c r="G7">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="H7">
-        <v>6.25</v>
+        <v>3.8</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="J7">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>15.75</v>
       </c>
       <c r="L7">
+        <v>1.18</v>
+      </c>
+      <c r="M7">
+        <v>4.15</v>
+      </c>
+      <c r="N7">
+        <v>1.61</v>
+      </c>
+      <c r="O7">
+        <v>2.23</v>
+      </c>
+      <c r="P7">
+        <v>1.32</v>
+      </c>
+      <c r="Q7">
+        <v>3.22</v>
+      </c>
+      <c r="R7">
+        <v>1.75</v>
+      </c>
+      <c r="S7">
+        <v>2.01</v>
+      </c>
+      <c r="T7">
         <v>1.13</v>
       </c>
-      <c r="M7">
-        <v>4.9</v>
-      </c>
-      <c r="N7">
-        <v>1.41</v>
-      </c>
-      <c r="O7">
-        <v>2.69</v>
-      </c>
-      <c r="P7">
-        <v>1.25</v>
-      </c>
-      <c r="Q7">
+      <c r="U7">
+        <v>1.23</v>
+      </c>
+      <c r="V7">
+        <v>2.48</v>
+      </c>
+      <c r="W7">
+        <v>1.67</v>
+      </c>
+      <c r="X7">
+        <v>0.25</v>
+      </c>
+      <c r="Y7">
+        <v>1.4</v>
+      </c>
+      <c r="Z7">
+        <v>1.23</v>
+      </c>
+      <c r="AA7">
+        <v>2.63</v>
+      </c>
+      <c r="AB7">
+        <v>1.33</v>
+      </c>
+      <c r="AC7">
+        <v>9</v>
+      </c>
+      <c r="AD7">
         <v>3.75</v>
       </c>
-      <c r="R7">
-        <v>2.05</v>
-      </c>
-      <c r="S7">
-        <v>1.7</v>
-      </c>
-      <c r="T7">
-        <v>1.02</v>
-      </c>
-      <c r="U7">
-        <v>1.11</v>
-      </c>
-      <c r="V7">
-        <v>4.35</v>
-      </c>
-      <c r="W7">
-        <v>2.09</v>
-      </c>
-      <c r="X7">
-        <v>0.55</v>
-      </c>
-      <c r="Y7">
-        <v>1.7</v>
-      </c>
-      <c r="Z7">
-        <v>1.04</v>
-      </c>
-      <c r="AA7">
-        <v>2.74</v>
-      </c>
-      <c r="AB7">
-        <v>1.17</v>
-      </c>
-      <c r="AC7">
-        <v>11</v>
-      </c>
-      <c r="AD7">
-        <v>6.5</v>
-      </c>
       <c r="AE7">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="AF7">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AG7">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AI7">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1843,91 +1843,91 @@
         <v>168</v>
       </c>
       <c r="G8">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="H8">
+        <v>6.5</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>1.02</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>1.13</v>
+      </c>
+      <c r="M8">
         <v>4.9</v>
       </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>1.03</v>
-      </c>
-      <c r="K8">
-        <v>17.25</v>
-      </c>
-      <c r="L8">
-        <v>1.2</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
       <c r="N8">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="O8">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="P8">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Q8">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="R8">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T8">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="U8">
+        <v>1.11</v>
+      </c>
+      <c r="V8">
+        <v>4.35</v>
+      </c>
+      <c r="W8">
+        <v>2</v>
+      </c>
+      <c r="X8">
+        <v>0.58</v>
+      </c>
+      <c r="Y8">
+        <v>1.7</v>
+      </c>
+      <c r="Z8">
+        <v>1.04</v>
+      </c>
+      <c r="AA8">
+        <v>2.74</v>
+      </c>
+      <c r="AB8">
         <v>1.17</v>
       </c>
-      <c r="V8">
-        <v>3.2</v>
-      </c>
-      <c r="W8">
-        <v>2.36</v>
-      </c>
-      <c r="X8">
-        <v>1.27</v>
-      </c>
-      <c r="Y8">
-        <v>1.74</v>
-      </c>
-      <c r="Z8">
-        <v>1.09</v>
-      </c>
-      <c r="AA8">
-        <v>2.83</v>
-      </c>
-      <c r="AB8">
-        <v>1.16</v>
-      </c>
       <c r="AC8">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD8">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE8">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AF8">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AG8">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AH8">
         <v>2.8</v>
       </c>
       <c r="AI8">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1950,13 +1950,13 @@
         <v>169</v>
       </c>
       <c r="G9">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="H9">
-        <v>3.38</v>
+        <v>3.4</v>
       </c>
       <c r="I9">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="J9">
         <v>1.05</v>
@@ -1971,10 +1971,10 @@
         <v>3.4</v>
       </c>
       <c r="N9">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="P9">
         <v>1.39</v>
@@ -2057,13 +2057,13 @@
         <v>170</v>
       </c>
       <c r="G10">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H10">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="I10">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="J10">
         <v>1.06</v>
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="O10">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P10">
         <v>1.45</v>
@@ -2141,7 +2141,7 @@
         <v>3.2</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -2164,13 +2164,13 @@
         <v>171</v>
       </c>
       <c r="G11">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I11">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="J11">
         <v>1.06</v>
@@ -2185,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>1.7</v>
@@ -2271,13 +2271,13 @@
         <v>172</v>
       </c>
       <c r="G12">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="H12">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="I12">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="J12">
         <v>1.08</v>
@@ -2343,7 +2343,7 @@
         <v>1.92</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF12">
         <v>1.63</v>
@@ -2355,7 +2355,7 @@
         <v>2.57</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2369,7 +2369,7 @@
         <v>77</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>104</v>
@@ -2378,67 +2378,67 @@
         <v>173</v>
       </c>
       <c r="G13">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H13">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I13">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="J13">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K13">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="L13">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M13">
-        <v>3.28</v>
+        <v>3.86</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q13">
-        <v>2.75</v>
+        <v>3.14</v>
       </c>
       <c r="R13">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="S13">
-        <v>1.88</v>
+        <v>2.29</v>
       </c>
       <c r="T13">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="U13">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="V13">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="W13">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1.08</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="Z13">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="AA13">
-        <v>2.6</v>
+        <v>3.24</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>77</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>105</v>
@@ -2485,91 +2485,91 @@
         <v>174</v>
       </c>
       <c r="G14">
-        <v>2.05</v>
+        <v>1.63</v>
       </c>
       <c r="H14">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="J14">
         <v>1.04</v>
       </c>
       <c r="K14">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="M14">
-        <v>2.85</v>
+        <v>3.96</v>
       </c>
       <c r="N14">
+        <v>1.7</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1.3</v>
+      </c>
+      <c r="Q14">
+        <v>3.25</v>
+      </c>
+      <c r="R14">
+        <v>1.7</v>
+      </c>
+      <c r="S14">
         <v>2.05</v>
       </c>
-      <c r="O14">
-        <v>1.71</v>
-      </c>
-      <c r="P14">
-        <v>1.46</v>
-      </c>
-      <c r="Q14">
-        <v>2.55</v>
-      </c>
-      <c r="R14">
-        <v>1.95</v>
-      </c>
-      <c r="S14">
-        <v>1.78</v>
-      </c>
       <c r="T14">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U14">
         <v>1.25</v>
       </c>
       <c r="V14">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="W14">
         <v>2</v>
       </c>
       <c r="X14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="Z14">
-        <v>0.68</v>
+        <v>1.56</v>
       </c>
       <c r="AA14">
-        <v>2.2</v>
+        <v>3.44</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2583,7 +2583,7 @@
         <v>77</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>106</v>
@@ -2592,91 +2592,91 @@
         <v>175</v>
       </c>
       <c r="G15">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="H15">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="J15">
         <v>1.04</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="L15">
+        <v>1.4</v>
+      </c>
+      <c r="M15">
+        <v>2.85</v>
+      </c>
+      <c r="N15">
+        <v>2.2</v>
+      </c>
+      <c r="O15">
+        <v>1.6</v>
+      </c>
+      <c r="P15">
+        <v>1.46</v>
+      </c>
+      <c r="Q15">
+        <v>2.55</v>
+      </c>
+      <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
+        <v>1.78</v>
+      </c>
+      <c r="T15">
         <v>1.2</v>
-      </c>
-      <c r="M15">
-        <v>3.96</v>
-      </c>
-      <c r="N15">
-        <v>1.6</v>
-      </c>
-      <c r="O15">
-        <v>2.1</v>
-      </c>
-      <c r="P15">
-        <v>1.3</v>
-      </c>
-      <c r="Q15">
-        <v>3.25</v>
-      </c>
-      <c r="R15">
-        <v>1.7</v>
-      </c>
-      <c r="S15">
-        <v>2.05</v>
-      </c>
-      <c r="T15">
-        <v>1.18</v>
       </c>
       <c r="U15">
         <v>1.25</v>
       </c>
       <c r="V15">
-        <v>2.25</v>
+        <v>1.72</v>
       </c>
       <c r="W15">
         <v>2</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y15">
-        <v>1.88</v>
+        <v>1.52</v>
       </c>
       <c r="Z15">
-        <v>1.56</v>
+        <v>0.68</v>
       </c>
       <c r="AA15">
-        <v>3.44</v>
+        <v>2.2</v>
       </c>
       <c r="AB15">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>4.07</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2690,7 +2690,7 @@
         <v>77</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
         <v>107</v>
@@ -2699,67 +2699,67 @@
         <v>176</v>
       </c>
       <c r="G16">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="H16">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="J16">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K16">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="L16">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M16">
-        <v>3.86</v>
+        <v>3.28</v>
       </c>
       <c r="N16">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="O16">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="P16">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
-        <v>3.14</v>
+        <v>2.75</v>
       </c>
       <c r="R16">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="S16">
-        <v>2.29</v>
+        <v>1.88</v>
       </c>
       <c r="T16">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="U16">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="V16">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>1.08</v>
       </c>
       <c r="Y16">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="Z16">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="AA16">
-        <v>3.24</v>
+        <v>2.6</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2806,91 +2806,91 @@
         <v>177</v>
       </c>
       <c r="G17">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="H17">
         <v>3.85</v>
       </c>
       <c r="I17">
-        <v>3.81</v>
+        <v>3.9</v>
       </c>
       <c r="J17">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K17">
         <v>10</v>
       </c>
       <c r="L17">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M17">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O17">
+        <v>2.25</v>
+      </c>
+      <c r="P17">
+        <v>1.27</v>
+      </c>
+      <c r="Q17">
+        <v>3.45</v>
+      </c>
+      <c r="R17">
+        <v>1.57</v>
+      </c>
+      <c r="S17">
+        <v>2.25</v>
+      </c>
+      <c r="T17">
+        <v>1.17</v>
+      </c>
+      <c r="U17">
+        <v>1.18</v>
+      </c>
+      <c r="V17">
         <v>2.1</v>
       </c>
-      <c r="P17">
-        <v>1.33</v>
-      </c>
-      <c r="Q17">
-        <v>3.05</v>
-      </c>
-      <c r="R17">
-        <v>1.67</v>
-      </c>
-      <c r="S17">
-        <v>2.1</v>
-      </c>
-      <c r="T17">
-        <v>1.22</v>
-      </c>
-      <c r="U17">
-        <v>1.2</v>
-      </c>
-      <c r="V17">
-        <v>1.83</v>
-      </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y17">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="Z17">
-        <v>0.98</v>
+        <v>1.77</v>
       </c>
       <c r="AA17">
-        <v>2.13</v>
+        <v>2.84</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2913,91 +2913,91 @@
         <v>178</v>
       </c>
       <c r="G18">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="H18">
-        <v>4.17</v>
+        <v>3.65</v>
       </c>
       <c r="I18">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="J18">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N18">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="O18">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="P18">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q18">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="R18">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S18">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T18">
         <v>1.42</v>
       </c>
       <c r="U18">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V18">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Z18">
-        <v>2.09</v>
+        <v>1.3</v>
       </c>
       <c r="AA18">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -3020,91 +3020,91 @@
         <v>179</v>
       </c>
       <c r="G19">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="H19">
-        <v>3.71</v>
+        <v>3.5</v>
       </c>
       <c r="I19">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="J19">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K19">
         <v>10</v>
       </c>
       <c r="L19">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M19">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N19">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O19">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P19">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q19">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="R19">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="S19">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="U19">
         <v>1.2</v>
       </c>
       <c r="V19">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Z19">
-        <v>1.7</v>
+        <v>0.98</v>
       </c>
       <c r="AA19">
-        <v>1.7</v>
+        <v>2.13</v>
       </c>
       <c r="AB19">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AC19">
         <v>7</v>
       </c>
       <c r="AD19">
-        <v>2.25</v>
+        <v>2.88</v>
       </c>
       <c r="AE19">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AF19">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="AG19">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="AH19">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AI19">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -3127,52 +3127,52 @@
         <v>180</v>
       </c>
       <c r="G20">
-        <v>1.87</v>
+        <v>2.55</v>
       </c>
       <c r="H20">
-        <v>3.93</v>
+        <v>3.65</v>
       </c>
       <c r="I20">
-        <v>3.5</v>
+        <v>2.43</v>
       </c>
       <c r="J20">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <v>1.18</v>
       </c>
       <c r="M20">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N20">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O20">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P20">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q20">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="R20">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S20">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T20">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U20">
         <v>1.2</v>
       </c>
       <c r="V20">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -3181,37 +3181,37 @@
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AA20">
-        <v>2.96</v>
+        <v>1.7</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -3234,91 +3234,91 @@
         <v>181</v>
       </c>
       <c r="G21">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="H21">
-        <v>4.16</v>
+        <v>3.9</v>
       </c>
       <c r="I21">
-        <v>3.53</v>
+        <v>3.85</v>
       </c>
       <c r="J21">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K21">
         <v>10</v>
       </c>
       <c r="L21">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M21">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N21">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="O21">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="P21">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="Q21">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="R21">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S21">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T21">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="U21">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="V21">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>3</v>
       </c>
       <c r="Y21">
-        <v>1.07</v>
+        <v>1.62</v>
       </c>
       <c r="Z21">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="AA21">
-        <v>2.84</v>
+        <v>3.71</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3341,13 +3341,13 @@
         <v>182</v>
       </c>
       <c r="G22">
-        <v>2.09</v>
+        <v>2.16</v>
       </c>
       <c r="H22">
-        <v>3.46</v>
+        <v>3.55</v>
       </c>
       <c r="I22">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="J22">
         <v>1.04</v>
@@ -3362,10 +3362,10 @@
         <v>4.1</v>
       </c>
       <c r="N22">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="O22">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>1.33</v>
@@ -3555,13 +3555,13 @@
         <v>184</v>
       </c>
       <c r="G24">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="H24">
-        <v>3.21</v>
+        <v>3.55</v>
       </c>
       <c r="I24">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3576,10 +3576,10 @@
         <v>3.82</v>
       </c>
       <c r="N24">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="O24">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="P24">
         <v>1.33</v>
@@ -3618,28 +3618,28 @@
         <v>2.87</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3653,7 +3653,7 @@
         <v>80</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
         <v>116</v>
@@ -3662,96 +3662,96 @@
         <v>185</v>
       </c>
       <c r="G25">
-        <v>2.38</v>
+        <v>1.4</v>
       </c>
       <c r="H25">
-        <v>3.28</v>
+        <v>4.5</v>
       </c>
       <c r="I25">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
       <c r="J25">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L25">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="M25">
+        <v>3.8</v>
+      </c>
+      <c r="N25">
+        <v>1.7</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>1.33</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>1.91</v>
+      </c>
+      <c r="S25">
+        <v>1.8</v>
+      </c>
+      <c r="T25">
+        <v>1.13</v>
+      </c>
+      <c r="U25">
+        <v>1.2</v>
+      </c>
+      <c r="V25">
+        <v>2.7</v>
+      </c>
+      <c r="W25">
+        <v>1.56</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>2.06</v>
+      </c>
+      <c r="Z25">
+        <v>1.44</v>
+      </c>
+      <c r="AA25">
         <v>3.5</v>
       </c>
-      <c r="N25">
-        <v>1.82</v>
-      </c>
-      <c r="O25">
-        <v>1.88</v>
-      </c>
-      <c r="P25">
-        <v>1.37</v>
-      </c>
-      <c r="Q25">
-        <v>2.85</v>
-      </c>
-      <c r="R25">
-        <v>1.68</v>
-      </c>
-      <c r="S25">
-        <v>2.1</v>
-      </c>
-      <c r="T25">
-        <v>1.42</v>
-      </c>
-      <c r="U25">
-        <v>1.25</v>
-      </c>
-      <c r="V25">
-        <v>1.47</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
       <c r="AB25">
-        <v>2.03</v>
+        <v>1.2</v>
       </c>
       <c r="AC25">
-        <v>7.7</v>
+        <v>11</v>
       </c>
       <c r="AD25">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="AE25">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AG25">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="AH25">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="AI25">
-        <v>3.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2">
         <v>45156</v>
@@ -3760,7 +3760,7 @@
         <v>80</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
         <v>117</v>
@@ -3769,96 +3769,96 @@
         <v>186</v>
       </c>
       <c r="G26">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="H26">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="I26">
-        <v>3.72</v>
+        <v>2.38</v>
       </c>
       <c r="J26">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K26">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L26">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="M26">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N26">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="O26">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="Q26">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="S26">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T26">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="U26">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="AB26">
-        <v>1.48</v>
+        <v>2.15</v>
       </c>
       <c r="AC26">
         <v>7.5</v>
       </c>
       <c r="AD26">
-        <v>3.55</v>
+        <v>2</v>
       </c>
       <c r="AE26">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AF26">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AG26">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AH26">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="AI26">
-        <v>2.32</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2">
         <v>45156</v>
@@ -3876,13 +3876,13 @@
         <v>187</v>
       </c>
       <c r="G27">
-        <v>7.25</v>
+        <v>5.2</v>
       </c>
       <c r="H27">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="J27">
         <v>1.04</v>
@@ -3897,10 +3897,10 @@
         <v>4.27</v>
       </c>
       <c r="N27">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O27">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P27">
         <v>1.32</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2">
         <v>45156</v>
@@ -3974,7 +3974,7 @@
         <v>80</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>119</v>
@@ -3983,96 +3983,96 @@
         <v>188</v>
       </c>
       <c r="G28">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="H28">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="I28">
-        <v>6.75</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="K28">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="L28">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="M28">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N28">
-        <v>1.61</v>
+        <v>2.04</v>
       </c>
       <c r="O28">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="P28">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="R28">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T28">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="U28">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="V28">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="AC28">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD28">
-        <v>5.75</v>
+        <v>3.55</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF28">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AG28">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AH28">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AI28">
-        <v>2</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2">
         <v>45156</v>
@@ -4090,96 +4090,96 @@
         <v>189</v>
       </c>
       <c r="G29">
-        <v>1.97</v>
+        <v>2.55</v>
       </c>
       <c r="H29">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I29">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="J29">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="K29">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="L29">
+        <v>1.28</v>
+      </c>
+      <c r="M29">
+        <v>3.5</v>
+      </c>
+      <c r="N29">
+        <v>1.83</v>
+      </c>
+      <c r="O29">
+        <v>2.01</v>
+      </c>
+      <c r="P29">
+        <v>1.37</v>
+      </c>
+      <c r="Q29">
+        <v>2.85</v>
+      </c>
+      <c r="R29">
+        <v>1.68</v>
+      </c>
+      <c r="S29">
+        <v>2.1</v>
+      </c>
+      <c r="T29">
         <v>1.42</v>
       </c>
-      <c r="M29">
-        <v>2.75</v>
-      </c>
-      <c r="N29">
-        <v>2.4</v>
-      </c>
-      <c r="O29">
+      <c r="U29">
+        <v>1.25</v>
+      </c>
+      <c r="V29">
+        <v>1.47</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>2.03</v>
+      </c>
+      <c r="AC29">
+        <v>7.7</v>
+      </c>
+      <c r="AD29">
+        <v>2.1</v>
+      </c>
+      <c r="AE29">
+        <v>1.23</v>
+      </c>
+      <c r="AF29">
         <v>1.44</v>
       </c>
-      <c r="P29">
-        <v>1.49</v>
-      </c>
-      <c r="Q29">
-        <v>2.45</v>
-      </c>
-      <c r="R29">
-        <v>2.05</v>
-      </c>
-      <c r="S29">
-        <v>1.72</v>
-      </c>
-      <c r="T29">
-        <v>1.17</v>
-      </c>
-      <c r="U29">
-        <v>1.28</v>
-      </c>
-      <c r="V29">
-        <v>1.87</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>1.51</v>
-      </c>
-      <c r="AC29">
-        <v>8.5</v>
-      </c>
-      <c r="AD29">
-        <v>3.16</v>
-      </c>
-      <c r="AE29">
-        <v>1.32</v>
-      </c>
-      <c r="AF29">
-        <v>1.6</v>
-      </c>
       <c r="AG29">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AH29">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="AI29">
-        <v>4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2">
         <v>45156</v>
@@ -4188,7 +4188,7 @@
         <v>80</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
         <v>121</v>
@@ -4197,91 +4197,91 @@
         <v>190</v>
       </c>
       <c r="G30">
-        <v>2.9</v>
+        <v>2.02</v>
       </c>
       <c r="H30">
-        <v>3.38</v>
+        <v>3.45</v>
       </c>
       <c r="I30">
-        <v>2.33</v>
+        <v>3.8</v>
       </c>
       <c r="J30">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="L30">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="M30">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N30">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="P30">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="Q30">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="R30">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="S30">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="T30">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="U30">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V30">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="W30">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>2.15</v>
+        <v>1.51</v>
       </c>
       <c r="AC30">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD30">
-        <v>2</v>
+        <v>3.16</v>
       </c>
       <c r="AE30">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AF30">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AG30">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="AH30">
-        <v>1.96</v>
+        <v>2.8</v>
       </c>
       <c r="AI30">
-        <v>2.43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -4304,13 +4304,13 @@
         <v>191</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H31">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I31">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J31">
         <v>1.09</v>
@@ -4325,10 +4325,10 @@
         <v>2.8</v>
       </c>
       <c r="N31">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O31">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="P31">
         <v>1.49</v>
@@ -4411,96 +4411,96 @@
         <v>192</v>
       </c>
       <c r="G32">
+        <v>2.2</v>
+      </c>
+      <c r="H32">
+        <v>3.5</v>
+      </c>
+      <c r="I32">
+        <v>3.1</v>
+      </c>
+      <c r="J32">
+        <v>1.04</v>
+      </c>
+      <c r="K32">
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <v>1.25</v>
+      </c>
+      <c r="M32">
+        <v>3.75</v>
+      </c>
+      <c r="N32">
+        <v>1.8</v>
+      </c>
+      <c r="O32">
         <v>2</v>
       </c>
-      <c r="H32">
-        <v>3.75</v>
-      </c>
-      <c r="I32">
+      <c r="P32">
+        <v>1.34</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>1.66</v>
+      </c>
+      <c r="S32">
+        <v>2.15</v>
+      </c>
+      <c r="T32">
+        <v>1.36</v>
+      </c>
+      <c r="U32">
+        <v>1.25</v>
+      </c>
+      <c r="V32">
+        <v>1.68</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>1.72</v>
+      </c>
+      <c r="AC32">
+        <v>8.9</v>
+      </c>
+      <c r="AD32">
+        <v>2.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.27</v>
+      </c>
+      <c r="AF32">
+        <v>1.49</v>
+      </c>
+      <c r="AG32">
+        <v>1.87</v>
+      </c>
+      <c r="AH32">
+        <v>2.45</v>
+      </c>
+      <c r="AI32">
         <v>3.4</v>
-      </c>
-      <c r="J32">
-        <v>1.02</v>
-      </c>
-      <c r="K32">
-        <v>15</v>
-      </c>
-      <c r="L32">
-        <v>1.22</v>
-      </c>
-      <c r="M32">
-        <v>4.2</v>
-      </c>
-      <c r="N32">
-        <v>1.7</v>
-      </c>
-      <c r="O32">
-        <v>2.15</v>
-      </c>
-      <c r="P32">
-        <v>1.3</v>
-      </c>
-      <c r="Q32">
-        <v>3.2</v>
-      </c>
-      <c r="R32">
-        <v>1.6</v>
-      </c>
-      <c r="S32">
-        <v>2.3</v>
-      </c>
-      <c r="T32">
-        <v>1.33</v>
-      </c>
-      <c r="U32">
-        <v>1.22</v>
-      </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2">
         <v>45156</v>
@@ -4518,52 +4518,52 @@
         <v>193</v>
       </c>
       <c r="G33">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="H33">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="I33">
-        <v>3.28</v>
+        <v>2.35</v>
       </c>
       <c r="J33">
         <v>1.03</v>
       </c>
       <c r="K33">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L33">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M33">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="N33">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O33">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P33">
         <v>1.3</v>
       </c>
       <c r="Q33">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R33">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S33">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T33">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="U33">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V33">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -4581,28 +4581,28 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>1.7</v>
+        <v>2.11</v>
       </c>
       <c r="AC33">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AD33">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AE33">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AF33">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="AG33">
-        <v>2.07</v>
+        <v>2.28</v>
       </c>
       <c r="AH33">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AI33">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="34" spans="1:35">
@@ -4625,52 +4625,52 @@
         <v>194</v>
       </c>
       <c r="G34">
-        <v>1.74</v>
+        <v>2.12</v>
       </c>
       <c r="H34">
-        <v>4.12</v>
+        <v>3.45</v>
       </c>
       <c r="I34">
-        <v>4.16</v>
+        <v>3.25</v>
       </c>
       <c r="J34">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K34">
-        <v>20.5</v>
+        <v>9</v>
       </c>
       <c r="L34">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="M34">
-        <v>5.1</v>
+        <v>4.33</v>
       </c>
       <c r="N34">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O34">
+        <v>2.2</v>
+      </c>
+      <c r="P34">
+        <v>1.3</v>
+      </c>
+      <c r="Q34">
+        <v>3.25</v>
+      </c>
+      <c r="R34">
+        <v>1.53</v>
+      </c>
+      <c r="S34">
         <v>2.4</v>
       </c>
-      <c r="P34">
-        <v>1.27</v>
-      </c>
-      <c r="Q34">
-        <v>3.5</v>
-      </c>
-      <c r="R34">
-        <v>1.52</v>
-      </c>
-      <c r="S34">
-        <v>2.35</v>
-      </c>
       <c r="T34">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="U34">
         <v>1.22</v>
       </c>
       <c r="V34">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -4688,33 +4688,33 @@
         <v>0</v>
       </c>
       <c r="AB34">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AC34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD34">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="AE34">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AF34">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="AG34">
-        <v>1.5</v>
+        <v>2.07</v>
       </c>
       <c r="AH34">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AI34">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2">
         <v>45156</v>
@@ -4732,96 +4732,96 @@
         <v>195</v>
       </c>
       <c r="G35">
-        <v>2.62</v>
+        <v>1.66</v>
       </c>
       <c r="H35">
-        <v>3.43</v>
+        <v>4.1</v>
       </c>
       <c r="I35">
-        <v>2.34</v>
+        <v>4.5</v>
       </c>
       <c r="J35">
         <v>1.02</v>
       </c>
       <c r="K35">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="L35">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="M35">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="N35">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="O35">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P35">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="Q35">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R35">
+        <v>1.52</v>
+      </c>
+      <c r="S35">
+        <v>2.35</v>
+      </c>
+      <c r="T35">
+        <v>1.16</v>
+      </c>
+      <c r="U35">
+        <v>1.22</v>
+      </c>
+      <c r="V35">
+        <v>2.05</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>1.43</v>
+      </c>
+      <c r="AC35">
+        <v>8</v>
+      </c>
+      <c r="AD35">
+        <v>3.6</v>
+      </c>
+      <c r="AE35">
+        <v>1.17</v>
+      </c>
+      <c r="AF35">
+        <v>1.3</v>
+      </c>
+      <c r="AG35">
         <v>1.5</v>
-      </c>
-      <c r="S35">
-        <v>2.4</v>
-      </c>
-      <c r="T35">
-        <v>1.43</v>
-      </c>
-      <c r="U35">
-        <v>1.29</v>
-      </c>
-      <c r="V35">
-        <v>1.55</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>2.02</v>
-      </c>
-      <c r="AC35">
-        <v>7.5</v>
-      </c>
-      <c r="AD35">
-        <v>2.02</v>
-      </c>
-      <c r="AE35">
-        <v>1.18</v>
-      </c>
-      <c r="AF35">
-        <v>1.35</v>
-      </c>
-      <c r="AG35">
-        <v>1.62</v>
       </c>
       <c r="AH35">
         <v>2</v>
       </c>
       <c r="AI35">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" s="2">
         <v>45156</v>
@@ -4839,91 +4839,91 @@
         <v>196</v>
       </c>
       <c r="G36">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="H36">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I36">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="J36">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K36">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L36">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>4.65</v>
       </c>
       <c r="N36">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="O36">
+        <v>2.3</v>
+      </c>
+      <c r="P36">
+        <v>1.29</v>
+      </c>
+      <c r="Q36">
+        <v>3.25</v>
+      </c>
+      <c r="R36">
+        <v>1.5</v>
+      </c>
+      <c r="S36">
+        <v>2.4</v>
+      </c>
+      <c r="T36">
+        <v>1.43</v>
+      </c>
+      <c r="U36">
+        <v>1.29</v>
+      </c>
+      <c r="V36">
+        <v>1.55</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>2.02</v>
+      </c>
+      <c r="AC36">
+        <v>7.5</v>
+      </c>
+      <c r="AD36">
+        <v>2.02</v>
+      </c>
+      <c r="AE36">
+        <v>1.18</v>
+      </c>
+      <c r="AF36">
+        <v>1.35</v>
+      </c>
+      <c r="AG36">
+        <v>1.62</v>
+      </c>
+      <c r="AH36">
         <v>2</v>
       </c>
-      <c r="P36">
-        <v>1.34</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-      <c r="R36">
-        <v>1.66</v>
-      </c>
-      <c r="S36">
-        <v>2.15</v>
-      </c>
-      <c r="T36">
-        <v>1.36</v>
-      </c>
-      <c r="U36">
-        <v>1.25</v>
-      </c>
-      <c r="V36">
-        <v>1.68</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
       <c r="AI36">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="37" spans="1:35">
@@ -4946,28 +4946,28 @@
         <v>197</v>
       </c>
       <c r="G37">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="H37">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I37">
-        <v>2.35</v>
+        <v>4.75</v>
       </c>
       <c r="J37">
         <v>1.03</v>
       </c>
       <c r="K37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L37">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M37">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="N37">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="O37">
         <v>2.15</v>
@@ -4979,63 +4979,63 @@
         <v>3.2</v>
       </c>
       <c r="R37">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="S37">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="T37">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="U37">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="V37">
+        <v>2.15</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
         <v>1.45</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
       <c r="AC37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE37">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AF37">
-        <v>1.74</v>
+        <v>1.3</v>
       </c>
       <c r="AG37">
-        <v>2.28</v>
+        <v>1.55</v>
       </c>
       <c r="AH37">
-        <v>3.1</v>
+        <v>1.92</v>
       </c>
       <c r="AI37">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2">
         <v>45156</v>
@@ -5053,52 +5053,52 @@
         <v>198</v>
       </c>
       <c r="G38">
-        <v>2.39</v>
+        <v>1.3</v>
       </c>
       <c r="H38">
-        <v>3.63</v>
+        <v>5.5</v>
       </c>
       <c r="I38">
-        <v>2.73</v>
+        <v>9</v>
       </c>
       <c r="J38">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K38">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L38">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="M38">
-        <v>4.22</v>
+        <v>5</v>
       </c>
       <c r="N38">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="O38">
-        <v>2.14</v>
+        <v>2.45</v>
       </c>
       <c r="P38">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="Q38">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="R38">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>2.35</v>
+        <v>1.87</v>
       </c>
       <c r="T38">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="U38">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="V38">
-        <v>1.72</v>
+        <v>3.5</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -5116,28 +5116,28 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>1.95</v>
+        <v>1.15</v>
       </c>
       <c r="AC38">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AD38">
-        <v>2.25</v>
+        <v>7.47</v>
       </c>
       <c r="AE38">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AF38">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AG38">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="AH38">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AI38">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="39" spans="1:35">
@@ -5160,52 +5160,52 @@
         <v>199</v>
       </c>
       <c r="G39">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="J39">
         <v>1.02</v>
       </c>
       <c r="K39">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L39">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N39">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="O39">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="P39">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q39">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="S39">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="T39">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="U39">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="V39">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -5223,33 +5223,33 @@
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF39">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AI39">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2">
         <v>45156</v>
@@ -5267,52 +5267,52 @@
         <v>200</v>
       </c>
       <c r="G40">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="H40">
-        <v>3.52</v>
+        <v>3.7</v>
       </c>
       <c r="I40">
-        <v>2.77</v>
+        <v>3.67</v>
       </c>
       <c r="J40">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K40">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L40">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M40">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="O40">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="P40">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q40">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R40">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="S40">
         <v>2.25</v>
       </c>
       <c r="T40">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="U40">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="V40">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="W40">
         <v>0</v>
@@ -5330,33 +5330,33 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AC40">
         <v>7</v>
       </c>
       <c r="AD40">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AE40">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF40">
         <v>1.55</v>
       </c>
       <c r="AG40">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AH40">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="AI40">
-        <v>3.8</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2">
         <v>45156</v>
@@ -5365,7 +5365,7 @@
         <v>82</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>132</v>
@@ -5374,52 +5374,52 @@
         <v>201</v>
       </c>
       <c r="G41">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="H41">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I41">
-        <v>3.67</v>
+        <v>2.75</v>
       </c>
       <c r="J41">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K41">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="L41">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="N41">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="O41">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="P41">
+        <v>1.5</v>
+      </c>
+      <c r="Q41">
+        <v>2.5</v>
+      </c>
+      <c r="R41">
+        <v>1.95</v>
+      </c>
+      <c r="S41">
+        <v>1.8</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
         <v>1.3</v>
       </c>
-      <c r="Q41">
-        <v>3.3</v>
-      </c>
-      <c r="R41">
-        <v>1.55</v>
-      </c>
-      <c r="S41">
-        <v>2.25</v>
-      </c>
-      <c r="T41">
-        <v>1.27</v>
-      </c>
-      <c r="U41">
-        <v>1.23</v>
-      </c>
       <c r="V41">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="W41">
         <v>0</v>
@@ -5437,28 +5437,28 @@
         <v>0</v>
       </c>
       <c r="AB41">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="AC41">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AD41">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="AE41">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AF41">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="AG41">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="AH41">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="AI41">
-        <v>3.18</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -5472,7 +5472,7 @@
         <v>82</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
         <v>133</v>
@@ -5481,96 +5481,96 @@
         <v>202</v>
       </c>
       <c r="G42">
-        <v>2.65</v>
+        <v>2.17</v>
       </c>
       <c r="H42">
-        <v>3.14</v>
+        <v>3.5</v>
       </c>
       <c r="I42">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="J42">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K42">
+        <v>15</v>
+      </c>
+      <c r="L42">
+        <v>1.21</v>
+      </c>
+      <c r="M42">
+        <v>4.22</v>
+      </c>
+      <c r="N42">
+        <v>1.65</v>
+      </c>
+      <c r="O42">
+        <v>2.1</v>
+      </c>
+      <c r="P42">
+        <v>1.36</v>
+      </c>
+      <c r="Q42">
+        <v>3.4</v>
+      </c>
+      <c r="R42">
+        <v>1.57</v>
+      </c>
+      <c r="S42">
+        <v>2.35</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>1.33</v>
+      </c>
+      <c r="V42">
+        <v>1.72</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>1.95</v>
+      </c>
+      <c r="AC42">
         <v>7</v>
       </c>
-      <c r="L42">
-        <v>1.4</v>
-      </c>
-      <c r="M42">
-        <v>2.7</v>
-      </c>
-      <c r="N42">
-        <v>2.2</v>
-      </c>
-      <c r="O42">
-        <v>1.6</v>
-      </c>
-      <c r="P42">
-        <v>1.5</v>
-      </c>
-      <c r="Q42">
-        <v>2.5</v>
-      </c>
-      <c r="R42">
-        <v>1.95</v>
-      </c>
-      <c r="S42">
-        <v>1.8</v>
-      </c>
-      <c r="T42">
-        <v>1.36</v>
-      </c>
-      <c r="U42">
-        <v>1.3</v>
-      </c>
-      <c r="V42">
-        <v>1.53</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>1.93</v>
-      </c>
-      <c r="AC42">
-        <v>7.9</v>
-      </c>
       <c r="AD42">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AE42">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AF42">
-        <v>1.93</v>
+        <v>1.47</v>
       </c>
       <c r="AG42">
+        <v>1.88</v>
+      </c>
+      <c r="AH42">
         <v>2.4</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>3.4</v>
-      </c>
-      <c r="AI42">
-        <v>5.6</v>
       </c>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2">
         <v>45156</v>
@@ -5588,91 +5588,91 @@
         <v>203</v>
       </c>
       <c r="G43">
-        <v>3.6</v>
+        <v>2.39</v>
       </c>
       <c r="H43">
         <v>3.5</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="J43">
         <v>1.05</v>
       </c>
       <c r="K43">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L43">
+        <v>1.25</v>
+      </c>
+      <c r="M43">
+        <v>3.82</v>
+      </c>
+      <c r="N43">
+        <v>1.79</v>
+      </c>
+      <c r="O43">
+        <v>1.99</v>
+      </c>
+      <c r="P43">
+        <v>1.4</v>
+      </c>
+      <c r="Q43">
+        <v>3.2</v>
+      </c>
+      <c r="R43">
+        <v>1.65</v>
+      </c>
+      <c r="S43">
+        <v>2.25</v>
+      </c>
+      <c r="T43">
+        <v>1.45</v>
+      </c>
+      <c r="U43">
+        <v>1.33</v>
+      </c>
+      <c r="V43">
+        <v>1.65</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>1.75</v>
+      </c>
+      <c r="AC43">
+        <v>7</v>
+      </c>
+      <c r="AD43">
+        <v>2.63</v>
+      </c>
+      <c r="AE43">
         <v>1.3</v>
       </c>
-      <c r="M43">
-        <v>3.5</v>
-      </c>
-      <c r="N43">
-        <v>1.9</v>
-      </c>
-      <c r="O43">
-        <v>1.87</v>
-      </c>
-      <c r="P43">
-        <v>1.38</v>
-      </c>
-      <c r="Q43">
-        <v>2.85</v>
-      </c>
-      <c r="R43">
-        <v>1.75</v>
-      </c>
-      <c r="S43">
-        <v>2.05</v>
-      </c>
-      <c r="T43">
-        <v>1.8</v>
-      </c>
-      <c r="U43">
-        <v>1.25</v>
-      </c>
-      <c r="V43">
-        <v>1.28</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>1.27</v>
-      </c>
       <c r="AF43">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AG43">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="AH43">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="AI43">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="44" spans="1:35">
@@ -5695,52 +5695,52 @@
         <v>204</v>
       </c>
       <c r="G44">
-        <v>1.72</v>
+        <v>3.6</v>
       </c>
       <c r="H44">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I44">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L44">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="M44">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="O44">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="P44">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="Q44">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="R44">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="S44">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T44">
-        <v>1.18</v>
+        <v>1.8</v>
       </c>
       <c r="U44">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V44">
-        <v>2.15</v>
+        <v>1.28</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -5758,33 +5758,33 @@
         <v>0</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>45156</v>
@@ -5802,13 +5802,13 @@
         <v>205</v>
       </c>
       <c r="G45">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="H45">
+        <v>3.25</v>
+      </c>
+      <c r="I45">
         <v>3.3</v>
-      </c>
-      <c r="I45">
-        <v>2.97</v>
       </c>
       <c r="J45">
         <v>1.07</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2">
         <v>45156</v>
@@ -5912,10 +5912,10 @@
         <v>2.13</v>
       </c>
       <c r="H46">
-        <v>3.04</v>
+        <v>3.35</v>
       </c>
       <c r="I46">
-        <v>3.03</v>
+        <v>3.3</v>
       </c>
       <c r="J46">
         <v>1.06</v>
@@ -5930,10 +5930,10 @@
         <v>3.5</v>
       </c>
       <c r="N46">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P46">
         <v>1.38</v>
@@ -6016,13 +6016,13 @@
         <v>207</v>
       </c>
       <c r="G47">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="H47">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I47">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="J47">
         <v>1.06</v>
@@ -6037,10 +6037,10 @@
         <v>3.25</v>
       </c>
       <c r="N47">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="O47">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="P47">
         <v>1.4</v>
@@ -6100,7 +6100,7 @@
         <v>3.2</v>
       </c>
       <c r="AI47">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="48" spans="1:35">
@@ -6123,13 +6123,13 @@
         <v>208</v>
       </c>
       <c r="G48">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H48">
-        <v>4.79</v>
+        <v>4.5</v>
       </c>
       <c r="I48">
-        <v>5.53</v>
+        <v>5.4</v>
       </c>
       <c r="J48">
         <v>1.03</v>
@@ -6156,10 +6156,10 @@
         <v>3.7</v>
       </c>
       <c r="R48">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S48">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T48">
         <v>1.14</v>
@@ -6195,13 +6195,13 @@
         <v>4</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF48">
         <v>1.36</v>
       </c>
       <c r="AG48">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="AH48">
         <v>1.95</v>
@@ -6233,10 +6233,10 @@
         <v>9</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I49">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J49">
         <v>1.02</v>
@@ -6251,10 +6251,10 @@
         <v>7.5</v>
       </c>
       <c r="N49">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
         <v>1.18</v>
@@ -6337,13 +6337,13 @@
         <v>210</v>
       </c>
       <c r="G50">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="H50">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="I50">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="J50">
         <v>1.02</v>
@@ -6409,10 +6409,10 @@
         <v>2.8</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG50">
         <v>1.62</v>
@@ -6444,13 +6444,13 @@
         <v>211</v>
       </c>
       <c r="G51">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H51">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I51">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="J51">
         <v>1.07</v>
@@ -6468,7 +6468,7 @@
         <v>2</v>
       </c>
       <c r="O51">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P51">
         <v>1.44</v>
@@ -6551,91 +6551,91 @@
         <v>212</v>
       </c>
       <c r="G52">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="H52">
-        <v>3.99</v>
+        <v>3.6</v>
       </c>
       <c r="I52">
-        <v>4.72</v>
+        <v>3.7</v>
       </c>
       <c r="J52">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K52">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="L52">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="M52">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>1.82</v>
+      </c>
+      <c r="P52">
+        <v>1.4</v>
+      </c>
+      <c r="Q52">
+        <v>2.75</v>
+      </c>
+      <c r="R52">
+        <v>1.83</v>
+      </c>
+      <c r="S52">
+        <v>1.83</v>
+      </c>
+      <c r="T52">
+        <v>1.18</v>
+      </c>
+      <c r="U52">
+        <v>1.25</v>
+      </c>
+      <c r="V52">
+        <v>1.95</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>1.23</v>
+      </c>
+      <c r="AC52">
+        <v>7</v>
+      </c>
+      <c r="AD52">
+        <v>4.95</v>
+      </c>
+      <c r="AE52">
+        <v>1.29</v>
+      </c>
+      <c r="AF52">
         <v>1.55</v>
       </c>
-      <c r="O52">
-        <v>2.3</v>
-      </c>
-      <c r="P52">
-        <v>1.29</v>
-      </c>
-      <c r="Q52">
-        <v>3.4</v>
-      </c>
-      <c r="R52">
-        <v>1.72</v>
-      </c>
-      <c r="S52">
-        <v>2.05</v>
-      </c>
-      <c r="T52">
-        <v>1.07</v>
-      </c>
-      <c r="U52">
-        <v>1.12</v>
-      </c>
-      <c r="V52">
-        <v>2.6</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
       <c r="AG52">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH52">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AI52">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="53" spans="1:35">
@@ -6658,31 +6658,31 @@
         <v>213</v>
       </c>
       <c r="G53">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="H53">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I53">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="N53">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="O53">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="P53">
         <v>1.36</v>
@@ -6721,13 +6721,13 @@
         <v>0</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE53">
         <v>0</v>
@@ -6736,18 +6736,18 @@
         <v>0</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="54" spans="1:35">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2">
         <v>45156</v>
@@ -6765,52 +6765,52 @@
         <v>214</v>
       </c>
       <c r="G54">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="H54">
+        <v>4.9</v>
+      </c>
+      <c r="I54">
+        <v>7.6</v>
+      </c>
+      <c r="J54">
+        <v>1.03</v>
+      </c>
+      <c r="K54">
+        <v>13.5</v>
+      </c>
+      <c r="L54">
+        <v>1.17</v>
+      </c>
+      <c r="M54">
+        <v>4.2</v>
+      </c>
+      <c r="N54">
+        <v>1.55</v>
+      </c>
+      <c r="O54">
+        <v>2.3</v>
+      </c>
+      <c r="P54">
+        <v>1.29</v>
+      </c>
+      <c r="Q54">
         <v>3.4</v>
       </c>
-      <c r="I54">
-        <v>3.5</v>
-      </c>
-      <c r="J54">
-        <v>1.08</v>
-      </c>
-      <c r="K54">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L54">
-        <v>1.42</v>
-      </c>
-      <c r="M54">
-        <v>2.99</v>
-      </c>
-      <c r="N54">
-        <v>2.1</v>
-      </c>
-      <c r="O54">
-        <v>1.74</v>
-      </c>
-      <c r="P54">
-        <v>1.44</v>
-      </c>
-      <c r="Q54">
-        <v>2.63</v>
-      </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="S54">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="U54">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="W54">
         <v>0</v>
@@ -6828,33 +6828,33 @@
         <v>0</v>
       </c>
       <c r="AB54">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE54">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AG54">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AH54">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AI54">
-        <v>2.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="2">
         <v>45156</v>
@@ -6863,7 +6863,7 @@
         <v>85</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" t="s">
         <v>146</v>
@@ -6872,52 +6872,52 @@
         <v>215</v>
       </c>
       <c r="G55">
-        <v>4.6</v>
+        <v>2.31</v>
       </c>
       <c r="H55">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="I55">
+        <v>3.15</v>
+      </c>
+      <c r="J55">
+        <v>1.08</v>
+      </c>
+      <c r="K55">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="L55">
+        <v>1.42</v>
+      </c>
+      <c r="M55">
+        <v>2.99</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
         <v>1.7</v>
       </c>
-      <c r="J55">
-        <v>1.03</v>
-      </c>
-      <c r="K55">
-        <v>17.5</v>
-      </c>
-      <c r="L55">
-        <v>1.19</v>
-      </c>
-      <c r="M55">
-        <v>4.78</v>
-      </c>
-      <c r="N55">
-        <v>1.53</v>
-      </c>
-      <c r="O55">
-        <v>2.2</v>
-      </c>
       <c r="P55">
+        <v>1.44</v>
+      </c>
+      <c r="Q55">
+        <v>2.63</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.75</v>
+      </c>
+      <c r="T55">
+        <v>1.23</v>
+      </c>
+      <c r="U55">
         <v>1.3</v>
       </c>
-      <c r="Q55">
-        <v>3.4</v>
-      </c>
-      <c r="R55">
-        <v>1.58</v>
-      </c>
-      <c r="S55">
-        <v>2.2</v>
-      </c>
-      <c r="T55">
-        <v>2.05</v>
-      </c>
-      <c r="U55">
-        <v>1.25</v>
-      </c>
       <c r="V55">
-        <v>1.23</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -6926,42 +6926,42 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="AB55">
-        <v>3.1</v>
+        <v>1.52</v>
       </c>
       <c r="AC55">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD55">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AE55">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AF55">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AG55">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="AH55">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AI55">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2">
         <v>45156</v>
@@ -6970,7 +6970,7 @@
         <v>85</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
         <v>147</v>
@@ -6979,52 +6979,52 @@
         <v>216</v>
       </c>
       <c r="G56">
-        <v>1.72</v>
+        <v>4.1</v>
       </c>
       <c r="H56">
-        <v>3.56</v>
+        <v>3.95</v>
       </c>
       <c r="I56">
-        <v>4.17</v>
+        <v>1.74</v>
       </c>
       <c r="J56">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K56">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="L56">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M56">
-        <v>3.6</v>
+        <v>4.78</v>
       </c>
       <c r="N56">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="O56">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="P56">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Q56">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R56">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="S56">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="T56">
-        <v>1.18</v>
+        <v>2.05</v>
       </c>
       <c r="U56">
         <v>1.25</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.23</v>
       </c>
       <c r="W56">
         <v>0</v>
@@ -7033,37 +7033,37 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF56">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH56">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI56">
-        <v>0</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="57" spans="1:35">
@@ -7086,13 +7086,13 @@
         <v>217</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H57">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I57">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="J57">
         <v>1.06</v>
@@ -7110,7 +7110,7 @@
         <v>2</v>
       </c>
       <c r="O57">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P57">
         <v>1.43</v>
@@ -7196,10 +7196,10 @@
         <v>4.5</v>
       </c>
       <c r="H58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I58">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J58">
         <v>1.04</v>
@@ -7214,10 +7214,10 @@
         <v>4</v>
       </c>
       <c r="N58">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="O58">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="P58">
         <v>1.31</v>
@@ -7300,10 +7300,10 @@
         <v>219</v>
       </c>
       <c r="G59">
-        <v>6.85</v>
+        <v>6.8</v>
       </c>
       <c r="H59">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="I59">
         <v>1.48</v>
@@ -7321,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="O59">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -7479,7 +7479,7 @@
         <v>2.25</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF60">
         <v>1.53</v>
@@ -7491,7 +7491,7 @@
         <v>2.27</v>
       </c>
       <c r="AI60">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="61" spans="1:35">
@@ -7514,10 +7514,10 @@
         <v>221</v>
       </c>
       <c r="G61">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H61">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I61">
         <v>5</v>
@@ -7535,10 +7535,10 @@
         <v>2.95</v>
       </c>
       <c r="N61">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="O61">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P61">
         <v>1.41</v>
@@ -7621,13 +7621,13 @@
         <v>222</v>
       </c>
       <c r="G62">
-        <v>2.69</v>
+        <v>2.9</v>
       </c>
       <c r="H62">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="I62">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J62">
         <v>1.09</v>
@@ -7642,10 +7642,10 @@
         <v>2.6</v>
       </c>
       <c r="N62">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="O62">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="P62">
         <v>1.52</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>45156</v>
@@ -7728,96 +7728,96 @@
         <v>223</v>
       </c>
       <c r="G63">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>3.52</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AB63">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD63">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AE63">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AF63">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AG63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH63">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="AI63">
-        <v>3.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:35">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
         <v>45156</v>
@@ -7835,96 +7835,96 @@
         <v>224</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI64">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="65" spans="1:35">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
         <v>45156</v>
@@ -7942,13 +7942,13 @@
         <v>225</v>
       </c>
       <c r="G65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H65">
         <v>3.2</v>
       </c>
       <c r="I65">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="J65">
         <v>1.11</v>
@@ -7957,16 +7957,16 @@
         <v>6</v>
       </c>
       <c r="L65">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M65">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N65">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O65">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P65">
         <v>1.55</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2">
         <v>45156</v>
@@ -8040,7 +8040,7 @@
         <v>89</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
         <v>157</v>
@@ -8049,88 +8049,88 @@
         <v>226</v>
       </c>
       <c r="G66">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Z66">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>2.91</v>
+        <v>0</v>
       </c>
       <c r="AB66">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD66">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AE66">
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AG66">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH66">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AI66">
         <v>0</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2">
         <v>45156</v>
@@ -8147,7 +8147,7 @@
         <v>89</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>158</v>
@@ -8156,91 +8156,91 @@
         <v>227</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="W67">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AA67">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AE67">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AI67">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="68" spans="1:35">
@@ -8263,13 +8263,13 @@
         <v>228</v>
       </c>
       <c r="G68">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H68">
-        <v>4.97</v>
+        <v>4.9</v>
       </c>
       <c r="I68">
-        <v>7.48</v>
+        <v>7.6</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -8454,12 +8454,12 @@
         <v>2.63</v>
       </c>
       <c r="AI69">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="70" spans="1:35">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>45156</v>
@@ -8477,13 +8477,13 @@
         <v>230</v>
       </c>
       <c r="G70">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="H70">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I70">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J70">
         <v>1.11</v>
@@ -8492,10 +8492,10 @@
         <v>6.5</v>
       </c>
       <c r="L70">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="M70">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N70">
         <v>2.55</v>
